--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_24_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_24_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3171675.660560371</v>
+        <v>3186824.541460626</v>
       </c>
     </row>
     <row r="7">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.54089302211</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>297.0625854277314</v>
+        <v>297.0625854277315</v>
       </c>
       <c r="D11" t="n">
         <v>286.4727352774069</v>
@@ -1381,16 +1381,16 @@
         <v>313.7200637289857</v>
       </c>
       <c r="F11" t="n">
-        <v>338.6657393984353</v>
+        <v>338.6657393984354</v>
       </c>
       <c r="G11" t="n">
-        <v>343.7580754880189</v>
+        <v>343.758075488019</v>
       </c>
       <c r="H11" t="n">
-        <v>237.116525625364</v>
+        <v>237.1165256253641</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13.71783572588575</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>64.82813309746381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.99492419876046</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.32287730659125</v>
+        <v>98.32287730659129</v>
       </c>
       <c r="C12" t="n">
         <v>104.4981926450397</v>
       </c>
       <c r="D12" t="n">
-        <v>79.23475922136267</v>
+        <v>79.23475922136271</v>
       </c>
       <c r="E12" t="n">
-        <v>129.5228281340544</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>76.85890605010783</v>
       </c>
       <c r="G12" t="n">
-        <v>67.34917324815163</v>
+        <v>107.4372272700814</v>
       </c>
       <c r="H12" t="n">
-        <v>26.79509081836956</v>
+        <v>26.79509081836961</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>70.33514933731327</v>
+        <v>70.33514933731331</v>
       </c>
       <c r="T12" t="n">
-        <v>124.7634989810696</v>
+        <v>124.7634989810697</v>
       </c>
       <c r="U12" t="n">
         <v>157.6137048448183</v>
@@ -1511,7 +1511,7 @@
         <v>164.5902808061492</v>
       </c>
       <c r="W12" t="n">
-        <v>183.4846768176435</v>
+        <v>183.4846768176436</v>
       </c>
       <c r="X12" t="n">
         <v>137.5626788602014</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>111.6216738386612</v>
+        <v>111.6216738386613</v>
       </c>
       <c r="C13" t="n">
-        <v>99.03651475535175</v>
+        <v>99.03651475535179</v>
       </c>
       <c r="D13" t="n">
-        <v>80.40516667493627</v>
+        <v>80.40516667493631</v>
       </c>
       <c r="E13" t="n">
-        <v>78.22365630329308</v>
+        <v>78.22365630329313</v>
       </c>
       <c r="F13" t="n">
-        <v>77.21074167965516</v>
+        <v>77.2107416796552</v>
       </c>
       <c r="G13" t="n">
-        <v>98.28499584470605</v>
+        <v>98.28499584470609</v>
       </c>
       <c r="H13" t="n">
-        <v>80.71893641210772</v>
+        <v>80.71893641210741</v>
       </c>
       <c r="I13" t="n">
-        <v>42.26107694819441</v>
+        <v>42.26107694819417</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.83200062319017</v>
+        <v>41.83200062318985</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7407177318445</v>
+        <v>129.7407177318446</v>
       </c>
       <c r="T13" t="n">
-        <v>153.3446624475144</v>
+        <v>153.3446624475145</v>
       </c>
       <c r="U13" t="n">
-        <v>218.0271406220977</v>
+        <v>218.0271406220981</v>
       </c>
       <c r="V13" t="n">
-        <v>183.9273369805519</v>
+        <v>183.927336980552</v>
       </c>
       <c r="W13" t="n">
-        <v>218.3126919933149</v>
+        <v>218.312691993315</v>
       </c>
       <c r="X13" t="n">
         <v>157.4993490457611</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>297.0625854277315</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>286.4727352774069</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>313.7200637289857</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>338.6657393984354</v>
       </c>
       <c r="G14" t="n">
-        <v>343.7580754880189</v>
+        <v>343.758075488019</v>
       </c>
       <c r="H14" t="n">
-        <v>237.116525625364</v>
+        <v>82.91195060880999</v>
       </c>
       <c r="I14" t="n">
         <v>13.71783572588575</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>56.75454186996419</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.8685981098532</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>259.5419521268588</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>281.0306623741369</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>301.5207943351929</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>318.0276323127775</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.32287730659125</v>
+        <v>138.4109313285204</v>
       </c>
       <c r="C15" t="n">
         <v>104.4981926450397</v>
       </c>
       <c r="D15" t="n">
-        <v>79.23475922136267</v>
+        <v>79.23475922136271</v>
       </c>
       <c r="E15" t="n">
-        <v>129.5228281340539</v>
+        <v>89.4347741121249</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>76.85890605010783</v>
       </c>
       <c r="G15" t="n">
-        <v>67.34917324815163</v>
+        <v>67.34917324815167</v>
       </c>
       <c r="H15" t="n">
-        <v>26.79509081836957</v>
+        <v>26.79509081836961</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>70.33514933731328</v>
+        <v>70.33514933731331</v>
       </c>
       <c r="T15" t="n">
         <v>124.7634989810697</v>
@@ -1748,7 +1748,7 @@
         <v>164.5902808061492</v>
       </c>
       <c r="W15" t="n">
-        <v>183.4846768176435</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>137.5626788602014</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.6216738386612</v>
+        <v>111.6216738386613</v>
       </c>
       <c r="C16" t="n">
-        <v>99.03651475535175</v>
+        <v>99.03651475535179</v>
       </c>
       <c r="D16" t="n">
-        <v>80.40516667493627</v>
+        <v>80.40516667493631</v>
       </c>
       <c r="E16" t="n">
-        <v>78.22365630329308</v>
+        <v>78.22365630329313</v>
       </c>
       <c r="F16" t="n">
-        <v>77.21074167965516</v>
+        <v>77.2107416796552</v>
       </c>
       <c r="G16" t="n">
-        <v>98.28499584470605</v>
+        <v>98.28499584470609</v>
       </c>
       <c r="H16" t="n">
-        <v>80.71893641210772</v>
+        <v>80.71893641210777</v>
       </c>
       <c r="I16" t="n">
-        <v>42.26107694819442</v>
+        <v>42.26107694819445</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.83200062319018</v>
+        <v>41.83200062319021</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7407177318445</v>
+        <v>129.7407177318446</v>
       </c>
       <c r="T16" t="n">
-        <v>153.3446624475144</v>
+        <v>153.3446624475145</v>
       </c>
       <c r="U16" t="n">
         <v>218.0271406220979</v>
       </c>
       <c r="V16" t="n">
-        <v>183.9273369805519</v>
+        <v>183.927336980552</v>
       </c>
       <c r="W16" t="n">
-        <v>218.3126919933149</v>
+        <v>218.312691993315</v>
       </c>
       <c r="X16" t="n">
         <v>157.4993490457611</v>
@@ -1861,7 +1861,7 @@
         <v>330.0402397621332</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>223.3986898994783</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>51.11029737157806</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>126.5715654889597</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>64.70509462441332</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>161.4758507975373</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.3097965868918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,10 +1928,10 @@
         <v>90.78035691915395</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>65.51692349547696</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>75.71693838623915</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>56.61731361142756</v>
+        <v>111.1809479315485</v>
       </c>
       <c r="T18" t="n">
         <v>111.0456632551839</v>
@@ -1982,10 +1982,10 @@
         <v>143.8958691189326</v>
       </c>
       <c r="V18" t="n">
-        <v>205.4360794003845</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>169.7668410917578</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>123.8448431343157</v>
@@ -2083,10 +2083,10 @@
         <v>300.8056995943188</v>
       </c>
       <c r="C20" t="n">
-        <v>146.4277917397513</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>272.7548995515211</v>
       </c>
       <c r="E20" t="n">
         <v>300.0022280031</v>
@@ -2095,10 +2095,10 @@
         <v>324.9479036725496</v>
       </c>
       <c r="G20" t="n">
-        <v>330.0402397621332</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>203.7131319503634</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>84.60504158070555</v>
+        <v>139.1686759008266</v>
       </c>
       <c r="C21" t="n">
-        <v>107.2457118467131</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>75.71693838623915</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2180,7 +2180,7 @@
         <v>13.07725509248386</v>
       </c>
       <c r="I21" t="n">
-        <v>38.09827939256181</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.8056995943188</v>
+        <v>195.4436386675949</v>
       </c>
       <c r="C23" t="n">
         <v>283.3447497018458</v>
@@ -2326,16 +2326,16 @@
         <v>272.7548995515211</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>300.0022280031</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>324.9479036725496</v>
       </c>
       <c r="G23" t="n">
-        <v>211.25474182664</v>
+        <v>330.0402397621332</v>
       </c>
       <c r="H23" t="n">
-        <v>223.3986898994783</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>169.1507623839675</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>245.8241164009731</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>84.60504158070555</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>110.4313112496926</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>130.2805727063602</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>63.14107032422208</v>
       </c>
       <c r="G24" t="n">
         <v>53.63133752226592</v>
       </c>
       <c r="H24" t="n">
-        <v>13.07725509248385</v>
+        <v>13.07725509248386</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.91267998958239</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>56.61731361142756</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>286.4727352774069</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>228.0889392095547</v>
       </c>
       <c r="F26" t="n">
-        <v>338.6657393984353</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>343.7580754880189</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.82813309746376</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>140.2894012148454</v>
       </c>
       <c r="U26" t="n">
         <v>182.8685981098532</v>
       </c>
       <c r="V26" t="n">
-        <v>150.6342418671618</v>
+        <v>259.5419521268588</v>
       </c>
       <c r="W26" t="n">
         <v>281.0306623741369</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>301.5207943351929</v>
       </c>
       <c r="Y26" t="n">
-        <v>318.0276323127775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.32287730659127</v>
+        <v>98.32287730659125</v>
       </c>
       <c r="C27" t="n">
-        <v>104.4981926450397</v>
+        <v>144.5862466669699</v>
       </c>
       <c r="D27" t="n">
-        <v>84.41013325371048</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>89.43477411212487</v>
+        <v>89.43477411212486</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>76.85890605010779</v>
       </c>
       <c r="G27" t="n">
-        <v>67.34917324815164</v>
+        <v>67.34917324815163</v>
       </c>
       <c r="H27" t="n">
-        <v>26.79509081836957</v>
+        <v>26.79509081836956</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.91267998958239</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>70.33514933731328</v>
+        <v>70.33514933731325</v>
       </c>
       <c r="T27" t="n">
         <v>124.7634989810696</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.6216738386612</v>
+        <v>111.621673838662</v>
       </c>
       <c r="C28" t="n">
-        <v>99.03651475535176</v>
+        <v>99.03651475535175</v>
       </c>
       <c r="D28" t="n">
-        <v>80.40516667493628</v>
+        <v>80.40516667493627</v>
       </c>
       <c r="E28" t="n">
-        <v>78.2236563032931</v>
+        <v>78.22365630329308</v>
       </c>
       <c r="F28" t="n">
-        <v>77.21074167965517</v>
+        <v>77.21074167965516</v>
       </c>
       <c r="G28" t="n">
-        <v>98.28499584470606</v>
+        <v>98.28499584470605</v>
       </c>
       <c r="H28" t="n">
-        <v>80.71893641210774</v>
+        <v>80.71893641210772</v>
       </c>
       <c r="I28" t="n">
-        <v>42.26107694819441</v>
+        <v>42.2610769481944</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83200062319017</v>
+        <v>41.83200062319015</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7407177318446</v>
+        <v>129.7407177318445</v>
       </c>
       <c r="T28" t="n">
         <v>153.3446624475144</v>
       </c>
       <c r="U28" t="n">
-        <v>218.0271406220977</v>
+        <v>218.0271406220979</v>
       </c>
       <c r="V28" t="n">
         <v>183.9273369805519</v>
@@ -2794,25 +2794,25 @@
         <v>314.5235353202045</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>297.0625854277314</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>80.7782556856926</v>
       </c>
       <c r="F29" t="n">
-        <v>338.6657393984354</v>
+        <v>338.6657393984353</v>
       </c>
       <c r="G29" t="n">
-        <v>343.758075488019</v>
+        <v>343.7580754880189</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>13.71783572588572</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.82813309746379</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>140.2894012148454</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>182.8685981098533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>259.5419521268589</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>18.11571517371003</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>301.5207943351929</v>
       </c>
       <c r="Y29" t="n">
         <v>318.0276323127775</v>
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.32287730659129</v>
+        <v>98.32287730659125</v>
       </c>
       <c r="C30" t="n">
         <v>104.4981926450397</v>
       </c>
       <c r="D30" t="n">
-        <v>79.23475922136271</v>
+        <v>79.23475922136267</v>
       </c>
       <c r="E30" t="n">
-        <v>89.4347741121249</v>
+        <v>89.43477411212486</v>
       </c>
       <c r="F30" t="n">
-        <v>76.85890605010783</v>
+        <v>76.85890605010779</v>
       </c>
       <c r="G30" t="n">
-        <v>67.34917324815167</v>
+        <v>67.34917324815163</v>
       </c>
       <c r="H30" t="n">
-        <v>26.7950908183696</v>
+        <v>26.79509081836956</v>
       </c>
       <c r="I30" t="n">
-        <v>5.175374032347396</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.91267998958239</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>70.33514933731331</v>
+        <v>70.33514933731327</v>
       </c>
       <c r="T30" t="n">
-        <v>124.7634989810697</v>
+        <v>124.7634989810696</v>
       </c>
       <c r="U30" t="n">
         <v>157.6137048448183</v>
@@ -2933,10 +2933,10 @@
         <v>164.5902808061492</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>223.5727308395732</v>
       </c>
       <c r="X30" t="n">
-        <v>137.5626788602014</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>137.4723894340283</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.6216738386613</v>
+        <v>111.6216738386612</v>
       </c>
       <c r="C31" t="n">
-        <v>99.03651475535179</v>
+        <v>99.03651475535175</v>
       </c>
       <c r="D31" t="n">
-        <v>80.40516667493631</v>
+        <v>80.40516667493627</v>
       </c>
       <c r="E31" t="n">
-        <v>78.22365630329313</v>
+        <v>78.22365630329308</v>
       </c>
       <c r="F31" t="n">
-        <v>77.2107416796552</v>
+        <v>77.21074167965516</v>
       </c>
       <c r="G31" t="n">
-        <v>98.28499584470609</v>
+        <v>98.28499584470605</v>
       </c>
       <c r="H31" t="n">
-        <v>80.71893641210777</v>
+        <v>80.71893641210772</v>
       </c>
       <c r="I31" t="n">
-        <v>42.26107694819456</v>
+        <v>42.26107694819417</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.8320006231902</v>
+        <v>41.83200062319017</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7407177318446</v>
+        <v>129.7407177318447</v>
       </c>
       <c r="T31" t="n">
-        <v>153.3446624475145</v>
+        <v>153.3446624475144</v>
       </c>
       <c r="U31" t="n">
-        <v>218.0271406220979</v>
+        <v>218.0271406220984</v>
       </c>
       <c r="V31" t="n">
-        <v>183.927336980552</v>
+        <v>183.9273369805519</v>
       </c>
       <c r="W31" t="n">
-        <v>218.312691993315</v>
+        <v>218.3126919933149</v>
       </c>
       <c r="X31" t="n">
         <v>157.4993490457611</v>
@@ -3037,16 +3037,16 @@
         <v>231.9802646600165</v>
       </c>
       <c r="E32" t="n">
-        <v>175.7528147300179</v>
+        <v>259.2275931115954</v>
       </c>
       <c r="F32" t="n">
-        <v>284.173268781045</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>289.2656048706286</v>
+        <v>80.80184850537569</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>182.6240550079737</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>226.5381917567466</v>
       </c>
       <c r="X32" t="n">
         <v>247.0283237178026</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>43.83040668920091</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>50.00572202764931</v>
       </c>
       <c r="D33" t="n">
-        <v>97.10851606004186</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>34.94230349473452</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>22.36643543271745</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>12.85670263076129</v>
+        <v>47.12465069426908</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>38.09827939256181</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.91267998958239</v>
+        <v>34.9126799895824</v>
       </c>
       <c r="S33" t="n">
-        <v>15.84267871992292</v>
+        <v>138.5454556805894</v>
       </c>
       <c r="T33" t="n">
-        <v>70.27102836367929</v>
+        <v>192.9738053243457</v>
       </c>
       <c r="U33" t="n">
         <v>103.1212342274279</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>128.9922062002532</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>83.07020824281105</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>82.97991881663793</v>
       </c>
     </row>
     <row r="34">
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>208.4515460808064</v>
+        <v>231.9802646600165</v>
       </c>
       <c r="E35" t="n">
         <v>259.2275931115954</v>
       </c>
       <c r="F35" t="n">
-        <v>284.173268781045</v>
+        <v>216.7304134530611</v>
       </c>
       <c r="G35" t="n">
         <v>289.2656048706286</v>
       </c>
       <c r="H35" t="n">
-        <v>182.6240550079737</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>226.5381917567466</v>
       </c>
       <c r="X35" t="n">
         <v>247.0283237178026</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>43.83040668920091</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3356,10 +3356,10 @@
         <v>34.94230349473452</v>
       </c>
       <c r="F36" t="n">
-        <v>22.36643543271745</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>12.85670263076129</v>
+        <v>135.5594795914277</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>34.9126799895824</v>
       </c>
       <c r="S36" t="n">
-        <v>15.84267871992292</v>
+        <v>88.2089061759925</v>
       </c>
       <c r="T36" t="n">
         <v>70.27102836367929</v>
@@ -3404,16 +3404,16 @@
         <v>103.1212342274279</v>
       </c>
       <c r="V36" t="n">
-        <v>217.3767176344106</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>83.07020824281105</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>82.97991881663793</v>
       </c>
     </row>
     <row r="37">
@@ -3508,7 +3508,7 @@
         <v>242.5701148103411</v>
       </c>
       <c r="D38" t="n">
-        <v>148.5054862784391</v>
+        <v>138.1698237983656</v>
       </c>
       <c r="E38" t="n">
         <v>259.2275931115954</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>10.33566248007342</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3590,16 +3590,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>34.94230349473452</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>22.36643543271745</v>
       </c>
       <c r="G39" t="n">
-        <v>12.85670263076129</v>
+        <v>25.13021291476753</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>95.00539716164565</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>70.27102836367929</v>
       </c>
       <c r="U39" t="n">
-        <v>103.1212342274279</v>
+        <v>225.8240111880944</v>
       </c>
       <c r="V39" t="n">
-        <v>110.0978101887588</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>128.9922062002532</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>190.3491156884629</v>
+        <v>83.07020824281105</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>82.97991881663793</v>
       </c>
     </row>
     <row r="40">
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>338.6657393984354</v>
+        <v>338.6657393984353</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>343.7580754880189</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>237.116525625364</v>
       </c>
       <c r="I41" t="n">
-        <v>13.71783572588572</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.82813309746376</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>140.2894012148454</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>182.8685981098533</v>
+        <v>182.8685981098532</v>
       </c>
       <c r="V41" t="n">
-        <v>259.5419521268589</v>
+        <v>259.5419521268588</v>
       </c>
       <c r="W41" t="n">
-        <v>281.030662374137</v>
+        <v>281.0306623741369</v>
       </c>
       <c r="X41" t="n">
-        <v>301.520794335193</v>
+        <v>64.88232956797937</v>
       </c>
       <c r="Y41" t="n">
-        <v>125.4007663079737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.32287730659128</v>
+        <v>98.32287730659124</v>
       </c>
       <c r="C42" t="n">
-        <v>104.4981926450397</v>
+        <v>104.4981926450396</v>
       </c>
       <c r="D42" t="n">
-        <v>79.23475922136269</v>
+        <v>79.23475922136265</v>
       </c>
       <c r="E42" t="n">
-        <v>129.5228281340546</v>
+        <v>89.43477411212484</v>
       </c>
       <c r="F42" t="n">
-        <v>76.85890605010782</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>67.34917324815166</v>
+        <v>67.34917324815162</v>
       </c>
       <c r="H42" t="n">
-        <v>26.79509081836959</v>
+        <v>26.79509081836955</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>70.33514933731328</v>
+        <v>70.33514933731325</v>
       </c>
       <c r="T42" t="n">
-        <v>192.9738053243457</v>
+        <v>124.7634989810696</v>
       </c>
       <c r="U42" t="n">
         <v>157.6137048448183</v>
@@ -3881,13 +3881,13 @@
         <v>164.5902808061492</v>
       </c>
       <c r="W42" t="n">
-        <v>183.4846768176436</v>
+        <v>183.4846768176435</v>
       </c>
       <c r="X42" t="n">
         <v>137.5626788602014</v>
       </c>
       <c r="Y42" t="n">
-        <v>137.4723894340283</v>
+        <v>177.5604434559587</v>
       </c>
     </row>
     <row r="43">
@@ -3900,25 +3900,25 @@
         <v>111.6216738386612</v>
       </c>
       <c r="C43" t="n">
-        <v>99.03651475535177</v>
+        <v>99.03651475535173</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4051666749363</v>
+        <v>80.40516667493625</v>
       </c>
       <c r="E43" t="n">
-        <v>78.22365630329311</v>
+        <v>78.22365630329307</v>
       </c>
       <c r="F43" t="n">
-        <v>77.21074167965519</v>
+        <v>77.21074167965514</v>
       </c>
       <c r="G43" t="n">
-        <v>98.28499584470607</v>
+        <v>98.28499584470603</v>
       </c>
       <c r="H43" t="n">
-        <v>80.71893641210774</v>
+        <v>80.71893641210769</v>
       </c>
       <c r="I43" t="n">
-        <v>42.26107694819444</v>
+        <v>42.26107694819439</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83200062319018</v>
+        <v>41.83200062319014</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7407177318442</v>
+        <v>129.7407177318445</v>
       </c>
       <c r="T43" t="n">
-        <v>153.3446624475145</v>
+        <v>153.3446624475144</v>
       </c>
       <c r="U43" t="n">
-        <v>218.0271406220984</v>
+        <v>218.0271406220986</v>
       </c>
       <c r="V43" t="n">
-        <v>183.927336980552</v>
+        <v>183.9273369805519</v>
       </c>
       <c r="W43" t="n">
-        <v>218.312691993315</v>
+        <v>218.3126919933149</v>
       </c>
       <c r="X43" t="n">
         <v>157.4993490457611</v>
@@ -3979,10 +3979,10 @@
         <v>314.5235353202045</v>
       </c>
       <c r="C44" t="n">
-        <v>297.0625854277314</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>85.08582426948414</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>313.7200637289857</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>42.48357239493235</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>140.2894012148454</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>182.8685981098532</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>301.5207943351929</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>318.0276323127775</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>98.32287730659124</v>
       </c>
       <c r="C45" t="n">
-        <v>104.4981926450397</v>
+        <v>104.4981926450396</v>
       </c>
       <c r="D45" t="n">
-        <v>79.23475922136267</v>
+        <v>79.23475922136265</v>
       </c>
       <c r="E45" t="n">
-        <v>89.43477411212486</v>
+        <v>129.5228281340553</v>
       </c>
       <c r="F45" t="n">
-        <v>76.85890605010779</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>67.34917324815163</v>
+        <v>67.34917324815162</v>
       </c>
       <c r="H45" t="n">
-        <v>26.79509081836956</v>
+        <v>26.79509081836955</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>110.4232033592437</v>
+        <v>70.33514933731325</v>
       </c>
       <c r="T45" t="n">
         <v>124.7634989810696</v>
@@ -4137,22 +4137,22 @@
         <v>111.6216738386612</v>
       </c>
       <c r="C46" t="n">
-        <v>99.03651475535175</v>
+        <v>99.03651475535173</v>
       </c>
       <c r="D46" t="n">
-        <v>80.40516667493627</v>
+        <v>80.40516667493625</v>
       </c>
       <c r="E46" t="n">
-        <v>78.22365630329308</v>
+        <v>78.22365630329307</v>
       </c>
       <c r="F46" t="n">
-        <v>77.21074167965516</v>
+        <v>77.21074167965637</v>
       </c>
       <c r="G46" t="n">
-        <v>98.28499584470605</v>
+        <v>98.28499584470603</v>
       </c>
       <c r="H46" t="n">
-        <v>80.71893641210772</v>
+        <v>80.71893641210771</v>
       </c>
       <c r="I46" t="n">
         <v>42.26107694819439</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.8320006231912</v>
+        <v>41.83200062319014</v>
       </c>
       <c r="S46" t="n">
         <v>129.7407177318445</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1876.259062880215</v>
+        <v>1890.115462603332</v>
       </c>
       <c r="C11" t="n">
-        <v>1576.195845276446</v>
+        <v>1590.052244999563</v>
       </c>
       <c r="D11" t="n">
-        <v>1286.829446006338</v>
+        <v>1300.685845729455</v>
       </c>
       <c r="E11" t="n">
-        <v>969.940492744736</v>
+        <v>983.7968924678532</v>
       </c>
       <c r="F11" t="n">
-        <v>627.8538872917711</v>
+        <v>641.7102870148882</v>
       </c>
       <c r="G11" t="n">
-        <v>280.6235080109439</v>
+        <v>294.4799077340609</v>
       </c>
       <c r="H11" t="n">
-        <v>41.11186596512167</v>
+        <v>54.9682656882386</v>
       </c>
       <c r="I11" t="n">
-        <v>41.11186596512167</v>
+        <v>41.11186596512168</v>
       </c>
       <c r="J11" t="n">
-        <v>142.0456984978098</v>
+        <v>142.0456984978096</v>
       </c>
       <c r="K11" t="n">
-        <v>344.0578673133667</v>
+        <v>344.0578673133668</v>
       </c>
       <c r="L11" t="n">
-        <v>631.5735877248945</v>
+        <v>631.5735877248947</v>
       </c>
       <c r="M11" t="n">
-        <v>983.1596624752754</v>
+        <v>983.1596624752755</v>
       </c>
       <c r="N11" t="n">
-        <v>1345.048575865874</v>
+        <v>1345.048575865875</v>
       </c>
       <c r="O11" t="n">
         <v>1673.434753571757</v>
@@ -5062,31 +5062,31 @@
         <v>1919.203757902038</v>
       </c>
       <c r="Q11" t="n">
-        <v>2055.593298256083</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="R11" t="n">
-        <v>2055.593298256083</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="S11" t="n">
-        <v>2055.593298256083</v>
+        <v>1990.110335531373</v>
       </c>
       <c r="T11" t="n">
-        <v>2055.593298256083</v>
+        <v>1890.115462603332</v>
       </c>
       <c r="U11" t="n">
-        <v>2055.593298256083</v>
+        <v>1890.115462603332</v>
       </c>
       <c r="V11" t="n">
-        <v>2055.593298256083</v>
+        <v>1890.115462603332</v>
       </c>
       <c r="W11" t="n">
-        <v>2055.593298256083</v>
+        <v>1890.115462603332</v>
       </c>
       <c r="X11" t="n">
-        <v>2055.593298256083</v>
+        <v>1890.115462603332</v>
       </c>
       <c r="Y11" t="n">
-        <v>2055.593298256083</v>
+        <v>1890.115462603332</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.1616199654871</v>
+        <v>599.1616199654875</v>
       </c>
       <c r="C12" t="n">
-        <v>493.6078900210026</v>
+        <v>493.607890021003</v>
       </c>
       <c r="D12" t="n">
-        <v>413.5727796963939</v>
+        <v>413.5727796963942</v>
       </c>
       <c r="E12" t="n">
-        <v>282.741640167046</v>
+        <v>254.3353246909386</v>
       </c>
       <c r="F12" t="n">
-        <v>136.207082193931</v>
+        <v>176.7000660544661</v>
       </c>
       <c r="G12" t="n">
-        <v>68.17761426650507</v>
+        <v>68.17761426650512</v>
       </c>
       <c r="H12" t="n">
-        <v>41.11186596512167</v>
+        <v>41.11186596512168</v>
       </c>
       <c r="I12" t="n">
-        <v>41.11186596512167</v>
+        <v>41.11186596512168</v>
       </c>
       <c r="J12" t="n">
-        <v>82.40951819862198</v>
+        <v>82.40951819862201</v>
       </c>
       <c r="K12" t="n">
-        <v>231.1486083838678</v>
+        <v>231.1486083838679</v>
       </c>
       <c r="L12" t="n">
-        <v>477.4692118368897</v>
+        <v>477.4692118368899</v>
       </c>
       <c r="M12" t="n">
-        <v>784.2706060465483</v>
+        <v>784.2706060465486</v>
       </c>
       <c r="N12" t="n">
         <v>1113.600765160644</v>
@@ -5138,7 +5138,7 @@
         <v>1392.653725682323</v>
       </c>
       <c r="P12" t="n">
-        <v>1597.285262001266</v>
+        <v>1597.285262001267</v>
       </c>
       <c r="Q12" t="n">
         <v>1684.156828438028</v>
@@ -5147,10 +5147,10 @@
         <v>1684.156828438028</v>
       </c>
       <c r="S12" t="n">
-        <v>1613.111223046802</v>
+        <v>1613.111223046803</v>
       </c>
       <c r="T12" t="n">
-        <v>1487.087486702287</v>
+        <v>1487.087486702288</v>
       </c>
       <c r="U12" t="n">
         <v>1327.881724232774</v>
@@ -5159,13 +5159,13 @@
         <v>1161.628915337674</v>
       </c>
       <c r="W12" t="n">
-        <v>976.2908579461144</v>
+        <v>976.2908579461148</v>
       </c>
       <c r="X12" t="n">
-        <v>837.3386570772241</v>
+        <v>837.3386570772244</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.4776576489127</v>
+        <v>698.477657648913</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>602.8705413370858</v>
+        <v>602.8705413370855</v>
       </c>
       <c r="C13" t="n">
-        <v>502.8336577458214</v>
+        <v>502.833657745821</v>
       </c>
       <c r="D13" t="n">
-        <v>421.6163176701282</v>
+        <v>421.6163176701277</v>
       </c>
       <c r="E13" t="n">
-        <v>342.6025234243776</v>
+        <v>342.6025234243771</v>
       </c>
       <c r="F13" t="n">
-        <v>264.6118752631098</v>
+        <v>264.6118752631093</v>
       </c>
       <c r="G13" t="n">
-        <v>165.3341016825986</v>
+        <v>165.334101682598</v>
       </c>
       <c r="H13" t="n">
-        <v>83.79982247844936</v>
+        <v>83.79982247844913</v>
       </c>
       <c r="I13" t="n">
-        <v>41.11186596512167</v>
+        <v>41.11186596512168</v>
       </c>
       <c r="J13" t="n">
         <v>120.9014131226289</v>
@@ -5235,16 +5235,16 @@
         <v>1432.906297768508</v>
       </c>
       <c r="V13" t="n">
-        <v>1247.121108899264</v>
+        <v>1247.121108899263</v>
       </c>
       <c r="W13" t="n">
-        <v>1026.603238198946</v>
+        <v>1026.603238198945</v>
       </c>
       <c r="X13" t="n">
-        <v>867.5129866375707</v>
+        <v>867.5129866375704</v>
       </c>
       <c r="Y13" t="n">
-        <v>715.619706830683</v>
+        <v>715.6197068306827</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>641.7102870148881</v>
+        <v>1734.353265616914</v>
       </c>
       <c r="C14" t="n">
-        <v>641.7102870148881</v>
+        <v>1434.290048013145</v>
       </c>
       <c r="D14" t="n">
-        <v>641.7102870148881</v>
+        <v>1144.923648743037</v>
       </c>
       <c r="E14" t="n">
-        <v>641.7102870148881</v>
+        <v>828.0346954814349</v>
       </c>
       <c r="F14" t="n">
-        <v>641.7102870148881</v>
+        <v>485.9480900284699</v>
       </c>
       <c r="G14" t="n">
-        <v>294.4799077340608</v>
+        <v>138.7177107476426</v>
       </c>
       <c r="H14" t="n">
         <v>54.96826568823859</v>
@@ -5278,16 +5278,16 @@
         <v>41.11186596512167</v>
       </c>
       <c r="J14" t="n">
-        <v>142.0456984978105</v>
+        <v>142.0456984978094</v>
       </c>
       <c r="K14" t="n">
-        <v>344.0578673133678</v>
+        <v>344.0578673133667</v>
       </c>
       <c r="L14" t="n">
-        <v>631.5735877248956</v>
+        <v>631.5735877248944</v>
       </c>
       <c r="M14" t="n">
-        <v>983.1596624752761</v>
+        <v>983.1596624752751</v>
       </c>
       <c r="N14" t="n">
         <v>1345.048575865875</v>
@@ -5308,22 +5308,22 @@
         <v>2055.593298256083</v>
       </c>
       <c r="T14" t="n">
-        <v>1998.265478185413</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.549722518894</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="V14" t="n">
-        <v>1551.386134511966</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="W14" t="n">
-        <v>1267.516778578494</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="X14" t="n">
-        <v>962.9503196540572</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="Y14" t="n">
-        <v>641.7102870148881</v>
+        <v>1734.353265616914</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.1616199654867</v>
+        <v>489.76933676831</v>
       </c>
       <c r="C15" t="n">
-        <v>493.6078900210022</v>
+        <v>384.2156068238255</v>
       </c>
       <c r="D15" t="n">
-        <v>413.5727796963934</v>
+        <v>304.1804964992166</v>
       </c>
       <c r="E15" t="n">
-        <v>282.741640167046</v>
+        <v>213.8423408304036</v>
       </c>
       <c r="F15" t="n">
-        <v>136.207082193931</v>
+        <v>136.2070821939311</v>
       </c>
       <c r="G15" t="n">
-        <v>68.17761426650507</v>
+        <v>68.17761426650512</v>
       </c>
       <c r="H15" t="n">
         <v>41.11186596512167</v>
@@ -5357,31 +5357,31 @@
         <v>41.11186596512167</v>
       </c>
       <c r="J15" t="n">
-        <v>82.40951819862192</v>
+        <v>82.40951819862198</v>
       </c>
       <c r="K15" t="n">
-        <v>231.1486083838676</v>
+        <v>231.1486083838678</v>
       </c>
       <c r="L15" t="n">
-        <v>477.4692118368895</v>
+        <v>477.4692118368897</v>
       </c>
       <c r="M15" t="n">
-        <v>784.270606046548</v>
+        <v>784.2706060465483</v>
       </c>
       <c r="N15" t="n">
-        <v>1113.600765160643</v>
+        <v>1113.600765160644</v>
       </c>
       <c r="O15" t="n">
-        <v>1392.653725682322</v>
+        <v>1392.653725682323</v>
       </c>
       <c r="P15" t="n">
         <v>1597.285262001266</v>
       </c>
       <c r="Q15" t="n">
-        <v>1684.156828438027</v>
+        <v>1684.156828438028</v>
       </c>
       <c r="R15" t="n">
-        <v>1684.156828438027</v>
+        <v>1684.156828438028</v>
       </c>
       <c r="S15" t="n">
         <v>1613.111223046802</v>
@@ -5390,19 +5390,19 @@
         <v>1487.087486702287</v>
       </c>
       <c r="U15" t="n">
-        <v>1327.881724232773</v>
+        <v>1327.881724232774</v>
       </c>
       <c r="V15" t="n">
         <v>1161.628915337673</v>
       </c>
       <c r="W15" t="n">
-        <v>976.290857946114</v>
+        <v>907.3915586094718</v>
       </c>
       <c r="X15" t="n">
-        <v>837.3386570772236</v>
+        <v>768.4393577405814</v>
       </c>
       <c r="Y15" t="n">
-        <v>698.4776576489122</v>
+        <v>629.57835831227</v>
       </c>
     </row>
     <row r="16">
@@ -5412,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>602.8705413370858</v>
+        <v>602.8705413370861</v>
       </c>
       <c r="C16" t="n">
-        <v>502.8336577458214</v>
+        <v>502.8336577458217</v>
       </c>
       <c r="D16" t="n">
-        <v>421.6163176701282</v>
+        <v>421.6163176701284</v>
       </c>
       <c r="E16" t="n">
-        <v>342.6025234243776</v>
+        <v>342.6025234243778</v>
       </c>
       <c r="F16" t="n">
-        <v>264.6118752631098</v>
+        <v>264.6118752631099</v>
       </c>
       <c r="G16" t="n">
-        <v>165.3341016825986</v>
+        <v>165.3341016825987</v>
       </c>
       <c r="H16" t="n">
-        <v>83.79982247844937</v>
+        <v>83.7998224784494</v>
       </c>
       <c r="I16" t="n">
         <v>41.11186596512167</v>
       </c>
       <c r="J16" t="n">
-        <v>120.9014131226289</v>
+        <v>120.9014131226296</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4156076430688</v>
+        <v>338.4156076430695</v>
       </c>
       <c r="L16" t="n">
-        <v>653.4006759443968</v>
+        <v>653.4006759443974</v>
       </c>
       <c r="M16" t="n">
-        <v>992.2265704712172</v>
+        <v>992.2265704712179</v>
       </c>
       <c r="N16" t="n">
-        <v>1330.036228702193</v>
+        <v>1330.036228702194</v>
       </c>
       <c r="O16" t="n">
-        <v>1631.19680643607</v>
+        <v>1631.196806436071</v>
       </c>
       <c r="P16" t="n">
-        <v>1875.117185072346</v>
+        <v>1875.117185072347</v>
       </c>
       <c r="Q16" t="n">
-        <v>1981.335107288353</v>
+        <v>1981.335107288354</v>
       </c>
       <c r="R16" t="n">
         <v>1939.080561204323</v>
@@ -5472,16 +5472,16 @@
         <v>1432.906297768508</v>
       </c>
       <c r="V16" t="n">
-        <v>1247.121108899263</v>
+        <v>1247.121108899264</v>
       </c>
       <c r="W16" t="n">
-        <v>1026.603238198945</v>
+        <v>1026.603238198946</v>
       </c>
       <c r="X16" t="n">
-        <v>867.5129866375705</v>
+        <v>867.512986637571</v>
       </c>
       <c r="Y16" t="n">
-        <v>715.619706830683</v>
+        <v>715.6197068306834</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1281.258604338156</v>
+        <v>1506.913846660862</v>
       </c>
       <c r="C17" t="n">
-        <v>1281.258604338156</v>
+        <v>1506.913846660862</v>
       </c>
       <c r="D17" t="n">
-        <v>1005.748604791165</v>
+        <v>1231.40384711387</v>
       </c>
       <c r="E17" t="n">
-        <v>702.7160512526801</v>
+        <v>928.3712935753856</v>
       </c>
       <c r="F17" t="n">
-        <v>374.485845522832</v>
+        <v>600.1410878455374</v>
       </c>
       <c r="G17" t="n">
-        <v>41.11186596512167</v>
+        <v>266.7671082878271</v>
       </c>
       <c r="H17" t="n">
         <v>41.11186596512167</v>
@@ -5542,25 +5542,25 @@
         <v>2055.593298256083</v>
       </c>
       <c r="S17" t="n">
-        <v>2055.593298256083</v>
+        <v>2003.96673525449</v>
       </c>
       <c r="T17" t="n">
-        <v>2055.593298256083</v>
+        <v>1876.116669104025</v>
       </c>
       <c r="U17" t="n">
-        <v>2055.593298256083</v>
+        <v>1810.757987665224</v>
       </c>
       <c r="V17" t="n">
-        <v>2055.593298256083</v>
+        <v>1810.757987665224</v>
       </c>
       <c r="W17" t="n">
-        <v>1892.486378258571</v>
+        <v>1810.757987665224</v>
       </c>
       <c r="X17" t="n">
-        <v>1892.486378258571</v>
+        <v>1810.757987665224</v>
       </c>
       <c r="Y17" t="n">
-        <v>1585.102745342519</v>
+        <v>1810.757987665224</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>654.8980356088866</v>
+        <v>489.3866374893679</v>
       </c>
       <c r="C18" t="n">
-        <v>563.2007053875191</v>
+        <v>397.6893072680003</v>
       </c>
       <c r="D18" t="n">
-        <v>414.2662957262677</v>
+        <v>331.5105966665084</v>
       </c>
       <c r="E18" t="n">
         <v>255.0288407208122</v>
@@ -5621,25 +5621,25 @@
         <v>1684.156828438028</v>
       </c>
       <c r="S18" t="n">
-        <v>1626.96762276992</v>
+        <v>1571.852840628383</v>
       </c>
       <c r="T18" t="n">
-        <v>1514.800286148522</v>
+        <v>1459.685504006985</v>
       </c>
       <c r="U18" t="n">
-        <v>1369.450923402125</v>
+        <v>1314.336141260589</v>
       </c>
       <c r="V18" t="n">
-        <v>1161.939732088606</v>
+        <v>1079.184033028846</v>
       </c>
       <c r="W18" t="n">
-        <v>990.4580744201633</v>
+        <v>824.9466763006445</v>
       </c>
       <c r="X18" t="n">
-        <v>865.3622732743898</v>
+        <v>699.8508751548711</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.3576735691953</v>
+        <v>574.8462754496766</v>
       </c>
     </row>
     <row r="19">
@@ -5676,22 +5676,22 @@
         <v>101.1821915817597</v>
       </c>
       <c r="K19" t="n">
-        <v>276.6433609557621</v>
+        <v>332.2770434708265</v>
       </c>
       <c r="L19" t="n">
-        <v>605.209086625717</v>
+        <v>660.8427691407813</v>
       </c>
       <c r="M19" t="n">
-        <v>780.8910742208132</v>
+        <v>836.5247567358776</v>
       </c>
       <c r="N19" t="n">
-        <v>1132.281389820416</v>
+        <v>1067.591861026442</v>
       </c>
       <c r="O19" t="n">
-        <v>1447.02262492292</v>
+        <v>1382.333096128946</v>
       </c>
       <c r="P19" t="n">
-        <v>1704.523660927823</v>
+        <v>1639.834132133849</v>
       </c>
       <c r="Q19" t="n">
         <v>1759.632711718483</v>
@@ -5731,19 +5731,19 @@
         <v>1153.655465134348</v>
       </c>
       <c r="C20" t="n">
-        <v>1005.748604791165</v>
+        <v>1153.655465134348</v>
       </c>
       <c r="D20" t="n">
-        <v>1005.748604791165</v>
+        <v>878.145465587357</v>
       </c>
       <c r="E20" t="n">
-        <v>702.7160512526801</v>
+        <v>575.1129120488722</v>
       </c>
       <c r="F20" t="n">
-        <v>374.485845522832</v>
+        <v>246.8827063190241</v>
       </c>
       <c r="G20" t="n">
-        <v>41.11186596512167</v>
+        <v>246.8827063190241</v>
       </c>
       <c r="H20" t="n">
         <v>41.11186596512167</v>
@@ -5758,16 +5758,16 @@
         <v>344.057867313367</v>
       </c>
       <c r="L20" t="n">
-        <v>631.5735877248944</v>
+        <v>631.5735877248947</v>
       </c>
       <c r="M20" t="n">
-        <v>983.1596624752754</v>
+        <v>983.1596624752756</v>
       </c>
       <c r="N20" t="n">
         <v>1345.048575865875</v>
       </c>
       <c r="O20" t="n">
-        <v>1673.434753571756</v>
+        <v>1673.434753571757</v>
       </c>
       <c r="P20" t="n">
         <v>1919.203757902038</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>710.012817750423</v>
+        <v>654.8980356088866</v>
       </c>
       <c r="C21" t="n">
-        <v>601.6838158850562</v>
+        <v>480.4450063277596</v>
       </c>
       <c r="D21" t="n">
-        <v>452.7494062238049</v>
+        <v>331.5105966665084</v>
       </c>
       <c r="E21" t="n">
-        <v>293.5119512183494</v>
+        <v>255.0288407208122</v>
       </c>
       <c r="F21" t="n">
-        <v>146.9773932452344</v>
+        <v>108.4942827476972</v>
       </c>
       <c r="G21" t="n">
-        <v>92.80432504092539</v>
+        <v>54.32121454338819</v>
       </c>
       <c r="H21" t="n">
-        <v>79.59497646265886</v>
+        <v>41.11186596512167</v>
       </c>
       <c r="I21" t="n">
         <v>41.11186596512167</v>
@@ -5910,25 +5910,25 @@
         <v>41.11186596512167</v>
       </c>
       <c r="J22" t="n">
-        <v>101.1821915817597</v>
+        <v>134.4820704912558</v>
       </c>
       <c r="K22" t="n">
-        <v>276.6433609557621</v>
+        <v>365.5769223803227</v>
       </c>
       <c r="L22" t="n">
-        <v>605.209086625717</v>
+        <v>694.1426480502776</v>
       </c>
       <c r="M22" t="n">
-        <v>780.8910742208132</v>
+        <v>869.8246356453737</v>
       </c>
       <c r="N22" t="n">
-        <v>1132.281389820416</v>
+        <v>1067.591861026442</v>
       </c>
       <c r="O22" t="n">
-        <v>1447.02262492292</v>
+        <v>1382.333096128946</v>
       </c>
       <c r="P22" t="n">
-        <v>1704.523660927823</v>
+        <v>1639.834132133849</v>
       </c>
       <c r="Q22" t="n">
         <v>1759.632711718483</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1041.872553823188</v>
+        <v>1567.465422218808</v>
       </c>
       <c r="C23" t="n">
-        <v>755.6657359425353</v>
+        <v>1281.258604338156</v>
       </c>
       <c r="D23" t="n">
-        <v>480.1557363955442</v>
+        <v>1005.748604791165</v>
       </c>
       <c r="E23" t="n">
-        <v>480.1557363955442</v>
+        <v>702.7160512526801</v>
       </c>
       <c r="F23" t="n">
-        <v>480.1557363955442</v>
+        <v>374.485845522832</v>
       </c>
       <c r="G23" t="n">
-        <v>266.7671082878271</v>
+        <v>41.11186596512167</v>
       </c>
       <c r="H23" t="n">
         <v>41.11186596512167</v>
@@ -5992,25 +5992,25 @@
         <v>142.0456984978098</v>
       </c>
       <c r="K23" t="n">
-        <v>344.0578673133671</v>
+        <v>344.057867313367</v>
       </c>
       <c r="L23" t="n">
-        <v>631.573587724895</v>
+        <v>631.5735877248948</v>
       </c>
       <c r="M23" t="n">
-        <v>983.159662475276</v>
+        <v>983.1596624752757</v>
       </c>
       <c r="N23" t="n">
-        <v>1345.048575865876</v>
+        <v>1345.048575865875</v>
       </c>
       <c r="O23" t="n">
         <v>1673.434753571757</v>
       </c>
       <c r="P23" t="n">
-        <v>1919.203757902039</v>
+        <v>1919.203757902038</v>
       </c>
       <c r="Q23" t="n">
-        <v>2055.593298256085</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="R23" t="n">
         <v>2055.593298256083</v>
@@ -6022,19 +6022,19 @@
         <v>2055.593298256083</v>
       </c>
       <c r="U23" t="n">
-        <v>1884.733942312682</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="V23" t="n">
-        <v>1636.426754028871</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="W23" t="n">
-        <v>1636.426754028871</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="X23" t="n">
-        <v>1345.71669482755</v>
+        <v>1764.883239054763</v>
       </c>
       <c r="Y23" t="n">
-        <v>1345.71669482755</v>
+        <v>1764.883239054763</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>674.7474844276126</v>
+        <v>627.2571186906637</v>
       </c>
       <c r="C24" t="n">
-        <v>563.2007053875191</v>
+        <v>452.8040894095367</v>
       </c>
       <c r="D24" t="n">
-        <v>414.2662957262677</v>
+        <v>303.8696797482854</v>
       </c>
       <c r="E24" t="n">
-        <v>255.0288407208122</v>
+        <v>172.2731416610529</v>
       </c>
       <c r="F24" t="n">
         <v>108.4942827476972</v>
@@ -6077,7 +6077,7 @@
         <v>477.4692118368899</v>
       </c>
       <c r="M24" t="n">
-        <v>784.2706060465487</v>
+        <v>784.2706060465486</v>
       </c>
       <c r="N24" t="n">
         <v>1113.600765160644</v>
@@ -6092,28 +6092,28 @@
         <v>1684.156828438028</v>
       </c>
       <c r="R24" t="n">
-        <v>1648.891495115218</v>
+        <v>1684.156828438028</v>
       </c>
       <c r="S24" t="n">
-        <v>1591.702289447109</v>
+        <v>1626.96762276992</v>
       </c>
       <c r="T24" t="n">
-        <v>1479.534952825711</v>
+        <v>1514.800286148522</v>
       </c>
       <c r="U24" t="n">
-        <v>1334.185590079315</v>
+        <v>1369.450923402125</v>
       </c>
       <c r="V24" t="n">
-        <v>1181.789180907331</v>
+        <v>1217.054514230142</v>
       </c>
       <c r="W24" t="n">
-        <v>1010.307523238889</v>
+        <v>1045.5728565617</v>
       </c>
       <c r="X24" t="n">
-        <v>885.2117220931158</v>
+        <v>920.4770554159262</v>
       </c>
       <c r="Y24" t="n">
-        <v>760.2071223879212</v>
+        <v>795.4724557107317</v>
       </c>
     </row>
     <row r="25">
@@ -6147,19 +6147,19 @@
         <v>41.11186596512167</v>
       </c>
       <c r="J25" t="n">
-        <v>101.1821915817597</v>
+        <v>134.4820704912558</v>
       </c>
       <c r="K25" t="n">
-        <v>226.6007147896206</v>
+        <v>365.5769223803227</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3164859334365</v>
+        <v>694.1426480502776</v>
       </c>
       <c r="M25" t="n">
-        <v>746.7230378288839</v>
+        <v>869.8246356453737</v>
       </c>
       <c r="N25" t="n">
-        <v>1098.113353428487</v>
+        <v>1067.591861026442</v>
       </c>
       <c r="O25" t="n">
         <v>1382.333096128946</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>730.4288506989139</v>
+        <v>560.8711331236688</v>
       </c>
       <c r="C26" t="n">
-        <v>730.4288506989139</v>
+        <v>560.8711331236688</v>
       </c>
       <c r="D26" t="n">
-        <v>730.4288506989139</v>
+        <v>271.5047338535608</v>
       </c>
       <c r="E26" t="n">
-        <v>730.4288506989139</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="F26" t="n">
-        <v>388.3422452459489</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="G26" t="n">
-        <v>41.11186596512167</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="H26" t="n">
-        <v>41.11186596512167</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="I26" t="n">
-        <v>41.11186596512167</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="J26" t="n">
-        <v>142.0456984978098</v>
+        <v>142.04569849781</v>
       </c>
       <c r="K26" t="n">
-        <v>344.0578673133671</v>
+        <v>344.0578673133673</v>
       </c>
       <c r="L26" t="n">
-        <v>631.573587724895</v>
+        <v>631.5735877248951</v>
       </c>
       <c r="M26" t="n">
-        <v>983.159662475276</v>
+        <v>983.1596624752759</v>
       </c>
       <c r="N26" t="n">
-        <v>1345.048575865876</v>
+        <v>1345.048575865875</v>
       </c>
       <c r="O26" t="n">
         <v>1673.434753571757</v>
       </c>
       <c r="P26" t="n">
-        <v>1919.203757902039</v>
+        <v>1919.203757902038</v>
       </c>
       <c r="Q26" t="n">
-        <v>2055.593298256085</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="R26" t="n">
-        <v>2055.593298256083</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="S26" t="n">
-        <v>1990.110335531373</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="T26" t="n">
-        <v>1990.110335531373</v>
+        <v>1913.886832382503</v>
       </c>
       <c r="U26" t="n">
-        <v>1805.394579864854</v>
+        <v>1729.171076715985</v>
       </c>
       <c r="V26" t="n">
-        <v>1653.238779999034</v>
+        <v>1467.007488709057</v>
       </c>
       <c r="W26" t="n">
-        <v>1369.369424065563</v>
+        <v>1183.138132775585</v>
       </c>
       <c r="X26" t="n">
-        <v>1369.369424065563</v>
+        <v>878.571673851148</v>
       </c>
       <c r="Y26" t="n">
-        <v>1048.129391426393</v>
+        <v>878.571673851148</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>563.8962866426774</v>
+        <v>599.1616199654878</v>
       </c>
       <c r="C27" t="n">
-        <v>458.3425566981929</v>
+        <v>453.1149061604677</v>
       </c>
       <c r="D27" t="n">
-        <v>373.079795835859</v>
+        <v>304.1804964992165</v>
       </c>
       <c r="E27" t="n">
-        <v>282.7416401670461</v>
+        <v>213.8423408304035</v>
       </c>
       <c r="F27" t="n">
         <v>136.207082193931</v>
@@ -6299,10 +6299,10 @@
         <v>68.17761426650509</v>
       </c>
       <c r="H27" t="n">
-        <v>41.11186596512167</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="I27" t="n">
-        <v>41.11186596512167</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="J27" t="n">
         <v>82.40951819862201</v>
@@ -6314,7 +6314,7 @@
         <v>477.4692118368899</v>
       </c>
       <c r="M27" t="n">
-        <v>784.2706060465487</v>
+        <v>784.2706060465486</v>
       </c>
       <c r="N27" t="n">
         <v>1113.600765160644</v>
@@ -6329,28 +6329,28 @@
         <v>1684.156828438028</v>
       </c>
       <c r="R27" t="n">
-        <v>1648.891495115218</v>
+        <v>1684.156828438028</v>
       </c>
       <c r="S27" t="n">
-        <v>1577.845889723992</v>
+        <v>1613.111223046803</v>
       </c>
       <c r="T27" t="n">
-        <v>1451.822153379477</v>
+        <v>1487.087486702288</v>
       </c>
       <c r="U27" t="n">
-        <v>1292.616390909964</v>
+        <v>1327.881724232774</v>
       </c>
       <c r="V27" t="n">
-        <v>1126.363582014864</v>
+        <v>1161.628915337674</v>
       </c>
       <c r="W27" t="n">
-        <v>941.0255246233047</v>
+        <v>976.2908579461151</v>
       </c>
       <c r="X27" t="n">
-        <v>802.0733237544143</v>
+        <v>837.3386570772248</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.2123243261029</v>
+        <v>698.4776576489134</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>602.8705413370864</v>
+        <v>602.8705413370857</v>
       </c>
       <c r="C28" t="n">
-        <v>502.8336577458219</v>
+        <v>502.8336577458213</v>
       </c>
       <c r="D28" t="n">
-        <v>421.6163176701288</v>
+        <v>421.6163176701281</v>
       </c>
       <c r="E28" t="n">
-        <v>342.6025234243781</v>
+        <v>342.6025234243775</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6118752631103</v>
+        <v>264.6118752631097</v>
       </c>
       <c r="G28" t="n">
         <v>165.3341016825986</v>
@@ -6381,25 +6381,25 @@
         <v>83.79982247844936</v>
       </c>
       <c r="I28" t="n">
-        <v>41.11186596512167</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="J28" t="n">
-        <v>120.9014131226288</v>
+        <v>120.901413122629</v>
       </c>
       <c r="K28" t="n">
-        <v>338.4156076430688</v>
+        <v>338.4156076430689</v>
       </c>
       <c r="L28" t="n">
         <v>653.4006759443969</v>
       </c>
       <c r="M28" t="n">
-        <v>992.2265704712173</v>
+        <v>992.2265704712174</v>
       </c>
       <c r="N28" t="n">
         <v>1330.036228702194</v>
       </c>
       <c r="O28" t="n">
-        <v>1631.196806436071</v>
+        <v>1631.19680643607</v>
       </c>
       <c r="P28" t="n">
         <v>1875.117185072347</v>
@@ -6414,7 +6414,7 @@
         <v>1808.029331172157</v>
       </c>
       <c r="T28" t="n">
-        <v>1653.135732740324</v>
+        <v>1653.135732740325</v>
       </c>
       <c r="U28" t="n">
         <v>1432.906297768508</v>
@@ -6429,7 +6429,7 @@
         <v>867.5129866375712</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.6197068306835</v>
+        <v>715.6197068306836</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>744.2852504220309</v>
+        <v>1112.086265964999</v>
       </c>
       <c r="C29" t="n">
-        <v>744.2852504220309</v>
+        <v>812.0230483612297</v>
       </c>
       <c r="D29" t="n">
-        <v>744.2852504220309</v>
+        <v>812.0230483612297</v>
       </c>
       <c r="E29" t="n">
-        <v>744.2852504220309</v>
+        <v>730.4288506989139</v>
       </c>
       <c r="F29" t="n">
-        <v>402.1986449690659</v>
+        <v>388.3422452459489</v>
       </c>
       <c r="G29" t="n">
-        <v>54.96826568823859</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="H29" t="n">
-        <v>54.96826568823859</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="I29" t="n">
         <v>41.11186596512169</v>
       </c>
       <c r="J29" t="n">
-        <v>142.04569849781</v>
+        <v>142.0456984978098</v>
       </c>
       <c r="K29" t="n">
-        <v>344.0578673133673</v>
+        <v>344.057867313367</v>
       </c>
       <c r="L29" t="n">
-        <v>631.5735877248956</v>
+        <v>631.5735877248947</v>
       </c>
       <c r="M29" t="n">
-        <v>983.1596624752765</v>
+        <v>983.1596624752756</v>
       </c>
       <c r="N29" t="n">
-        <v>1345.048575865876</v>
+        <v>1345.048575865875</v>
       </c>
       <c r="O29" t="n">
-        <v>1673.434753571758</v>
+        <v>1673.434753571757</v>
       </c>
       <c r="P29" t="n">
-        <v>1919.203757902039</v>
+        <v>1919.203757902038</v>
       </c>
       <c r="Q29" t="n">
-        <v>2055.593298256085</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="R29" t="n">
-        <v>2055.593298256085</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="S29" t="n">
-        <v>1990.110335531374</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="T29" t="n">
-        <v>1848.403869657793</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="U29" t="n">
-        <v>1663.688113991274</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="V29" t="n">
-        <v>1401.524525984346</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="W29" t="n">
-        <v>1383.225823788679</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="X29" t="n">
-        <v>1383.225823788679</v>
+        <v>1751.026839331647</v>
       </c>
       <c r="Y29" t="n">
-        <v>1061.98579114951</v>
+        <v>1429.786806692478</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>494.9969873060347</v>
+        <v>489.7693367683097</v>
       </c>
       <c r="C30" t="n">
-        <v>389.4432573615501</v>
+        <v>384.2156068238252</v>
       </c>
       <c r="D30" t="n">
-        <v>309.4081470369413</v>
+        <v>304.1804964992165</v>
       </c>
       <c r="E30" t="n">
-        <v>219.0699913681283</v>
+        <v>213.8423408304035</v>
       </c>
       <c r="F30" t="n">
-        <v>141.4347327316557</v>
+        <v>136.207082193931</v>
       </c>
       <c r="G30" t="n">
-        <v>73.40526480422977</v>
+        <v>68.17761426650509</v>
       </c>
       <c r="H30" t="n">
-        <v>46.33951650284634</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="I30" t="n">
         <v>41.11186596512169</v>
       </c>
       <c r="J30" t="n">
-        <v>82.40951819862202</v>
+        <v>82.40951819862198</v>
       </c>
       <c r="K30" t="n">
-        <v>231.1486083838679</v>
+        <v>231.1486083838678</v>
       </c>
       <c r="L30" t="n">
-        <v>477.4692118368899</v>
+        <v>477.4692118368897</v>
       </c>
       <c r="M30" t="n">
-        <v>784.2706060465487</v>
+        <v>784.2706060465483</v>
       </c>
       <c r="N30" t="n">
         <v>1113.600765160644</v>
@@ -6560,34 +6560,34 @@
         <v>1392.653725682323</v>
       </c>
       <c r="P30" t="n">
-        <v>1597.285262001267</v>
+        <v>1597.285262001266</v>
       </c>
       <c r="Q30" t="n">
         <v>1684.156828438028</v>
       </c>
       <c r="R30" t="n">
-        <v>1648.891495115218</v>
+        <v>1684.156828438028</v>
       </c>
       <c r="S30" t="n">
-        <v>1577.845889723992</v>
+        <v>1613.111223046802</v>
       </c>
       <c r="T30" t="n">
-        <v>1451.822153379477</v>
+        <v>1487.087486702287</v>
       </c>
       <c r="U30" t="n">
-        <v>1292.616390909964</v>
+        <v>1327.881724232774</v>
       </c>
       <c r="V30" t="n">
-        <v>1126.363582014864</v>
+        <v>1161.628915337674</v>
       </c>
       <c r="W30" t="n">
-        <v>872.126225286662</v>
+        <v>935.7978740855795</v>
       </c>
       <c r="X30" t="n">
-        <v>733.1740244177716</v>
+        <v>727.9463738800466</v>
       </c>
       <c r="Y30" t="n">
-        <v>594.3130249894602</v>
+        <v>589.0853744517352</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>602.8705413370863</v>
+        <v>602.8705413370855</v>
       </c>
       <c r="C31" t="n">
-        <v>502.8336577458218</v>
+        <v>502.8336577458211</v>
       </c>
       <c r="D31" t="n">
-        <v>421.6163176701285</v>
+        <v>421.6163176701279</v>
       </c>
       <c r="E31" t="n">
-        <v>342.6025234243779</v>
+        <v>342.6025234243773</v>
       </c>
       <c r="F31" t="n">
-        <v>264.61187526311</v>
+        <v>264.6118752631095</v>
       </c>
       <c r="G31" t="n">
-        <v>165.3341016825988</v>
+        <v>165.3341016825983</v>
       </c>
       <c r="H31" t="n">
-        <v>83.79982247844954</v>
+        <v>83.79982247844913</v>
       </c>
       <c r="I31" t="n">
         <v>41.11186596512169</v>
       </c>
       <c r="J31" t="n">
-        <v>120.9014131226289</v>
+        <v>120.9014131226288</v>
       </c>
       <c r="K31" t="n">
         <v>338.4156076430688</v>
       </c>
       <c r="L31" t="n">
-        <v>653.4006759443971</v>
+        <v>653.4006759443968</v>
       </c>
       <c r="M31" t="n">
-        <v>992.2265704712177</v>
+        <v>992.2265704712172</v>
       </c>
       <c r="N31" t="n">
-        <v>1330.036228702194</v>
+        <v>1330.036228702193</v>
       </c>
       <c r="O31" t="n">
-        <v>1631.196806436071</v>
+        <v>1631.19680643607</v>
       </c>
       <c r="P31" t="n">
         <v>1875.117185072347</v>
@@ -6645,28 +6645,28 @@
         <v>1981.335107288354</v>
       </c>
       <c r="R31" t="n">
-        <v>1939.080561204324</v>
+        <v>1939.080561204323</v>
       </c>
       <c r="S31" t="n">
-        <v>1808.029331172158</v>
+        <v>1808.029331172157</v>
       </c>
       <c r="T31" t="n">
-        <v>1653.135732740325</v>
+        <v>1653.135732740324</v>
       </c>
       <c r="U31" t="n">
-        <v>1432.906297768509</v>
+        <v>1432.906297768508</v>
       </c>
       <c r="V31" t="n">
-        <v>1247.121108899264</v>
+        <v>1247.121108899263</v>
       </c>
       <c r="W31" t="n">
-        <v>1026.603238198946</v>
+        <v>1026.603238198945</v>
       </c>
       <c r="X31" t="n">
-        <v>867.5129866375712</v>
+        <v>867.5129866375704</v>
       </c>
       <c r="Y31" t="n">
-        <v>715.6197068306835</v>
+        <v>715.6197068306826</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1277.214964805575</v>
+        <v>1048.388508485629</v>
       </c>
       <c r="C32" t="n">
-        <v>1032.194646815332</v>
+        <v>803.3681904953856</v>
       </c>
       <c r="D32" t="n">
-        <v>797.8711471587495</v>
+        <v>569.0446908388033</v>
       </c>
       <c r="E32" t="n">
-        <v>620.3430514718627</v>
+        <v>307.1986371907271</v>
       </c>
       <c r="F32" t="n">
-        <v>333.2993456324233</v>
+        <v>307.1986371907271</v>
       </c>
       <c r="G32" t="n">
-        <v>41.11186596512169</v>
+        <v>225.5806083974184</v>
       </c>
       <c r="H32" t="n">
         <v>41.11186596512169</v>
@@ -6700,16 +6700,16 @@
         <v>41.11186596512169</v>
       </c>
       <c r="J32" t="n">
-        <v>142.0456984978094</v>
+        <v>142.0456984978098</v>
       </c>
       <c r="K32" t="n">
-        <v>344.0578673133668</v>
+        <v>344.057867313367</v>
       </c>
       <c r="L32" t="n">
-        <v>631.5735877248947</v>
+        <v>631.5735877248948</v>
       </c>
       <c r="M32" t="n">
-        <v>983.1596624752756</v>
+        <v>983.1596624752757</v>
       </c>
       <c r="N32" t="n">
         <v>1345.048575865875</v>
@@ -6739,13 +6739,13 @@
         <v>2055.593298256084</v>
       </c>
       <c r="W32" t="n">
-        <v>2055.593298256084</v>
+        <v>1826.766841936138</v>
       </c>
       <c r="X32" t="n">
-        <v>1806.069738945173</v>
+        <v>1577.243282625227</v>
       </c>
       <c r="Y32" t="n">
-        <v>1539.872605919529</v>
+        <v>1311.046149599583</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>384.5284888000418</v>
+        <v>632.4128867003781</v>
       </c>
       <c r="C33" t="n">
-        <v>210.0754595189148</v>
+        <v>581.9020563694191</v>
       </c>
       <c r="D33" t="n">
-        <v>111.9860493572563</v>
+        <v>432.9676467081679</v>
       </c>
       <c r="E33" t="n">
-        <v>76.69079330196891</v>
+        <v>273.7301917027124</v>
       </c>
       <c r="F33" t="n">
-        <v>54.09843427902198</v>
+        <v>127.1956337295973</v>
       </c>
       <c r="G33" t="n">
-        <v>41.11186596512169</v>
+        <v>79.59497646265888</v>
       </c>
       <c r="H33" t="n">
-        <v>41.11186596512169</v>
+        <v>79.59497646265888</v>
       </c>
       <c r="I33" t="n">
         <v>41.11186596512169</v>
@@ -6788,7 +6788,7 @@
         <v>477.4692118368899</v>
       </c>
       <c r="M33" t="n">
-        <v>784.2706060465487</v>
+        <v>784.2706060465486</v>
       </c>
       <c r="N33" t="n">
         <v>1113.600765160644</v>
@@ -6806,25 +6806,25 @@
         <v>1648.891495115218</v>
       </c>
       <c r="S33" t="n">
-        <v>1632.888789337518</v>
+        <v>1508.94659038735</v>
       </c>
       <c r="T33" t="n">
-        <v>1561.907952606529</v>
+        <v>1314.023554706192</v>
       </c>
       <c r="U33" t="n">
-        <v>1457.745089750541</v>
+        <v>1209.860691850205</v>
       </c>
       <c r="V33" t="n">
-        <v>1222.592981518798</v>
+        <v>974.7085836184619</v>
       </c>
       <c r="W33" t="n">
-        <v>968.3556247905965</v>
+        <v>844.4134258404284</v>
       </c>
       <c r="X33" t="n">
-        <v>760.5041245850637</v>
+        <v>760.5041245850638</v>
       </c>
       <c r="Y33" t="n">
-        <v>552.7438258201098</v>
+        <v>676.686024770278</v>
       </c>
     </row>
     <row r="34">
@@ -6855,25 +6855,25 @@
         <v>41.11186596512169</v>
       </c>
       <c r="I34" t="n">
-        <v>53.22094569762567</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="J34" t="n">
-        <v>91.25079100606919</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="K34" t="n">
-        <v>257.0362027565196</v>
+        <v>135.5604535654602</v>
       </c>
       <c r="L34" t="n">
-        <v>465.1188624429252</v>
+        <v>343.6431132518658</v>
       </c>
       <c r="M34" t="n">
-        <v>559.6919893895513</v>
+        <v>438.2162401984918</v>
       </c>
       <c r="N34" t="n">
-        <v>781.3496538557267</v>
+        <v>659.8739046646673</v>
       </c>
       <c r="O34" t="n">
-        <v>853.5707786075368</v>
+        <v>853.570778607537</v>
       </c>
       <c r="P34" t="n">
         <v>1017.782205474129</v>
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1277.214964805575</v>
+        <v>1048.388508485628</v>
       </c>
       <c r="C35" t="n">
-        <v>1277.214964805575</v>
+        <v>1048.388508485628</v>
       </c>
       <c r="D35" t="n">
-        <v>1066.657847552236</v>
+        <v>814.065008829046</v>
       </c>
       <c r="E35" t="n">
-        <v>804.8117939041593</v>
+        <v>552.2189551809698</v>
       </c>
       <c r="F35" t="n">
-        <v>517.7680880647199</v>
+        <v>333.2993456324233</v>
       </c>
       <c r="G35" t="n">
-        <v>225.5806083974184</v>
+        <v>41.11186596512167</v>
       </c>
       <c r="H35" t="n">
-        <v>41.11186596512169</v>
+        <v>41.11186596512167</v>
       </c>
       <c r="I35" t="n">
-        <v>41.11186596512169</v>
+        <v>41.11186596512167</v>
       </c>
       <c r="J35" t="n">
         <v>142.0456984978094</v>
       </c>
       <c r="K35" t="n">
-        <v>344.0578673133668</v>
+        <v>344.0578673133669</v>
       </c>
       <c r="L35" t="n">
         <v>631.5735877248947</v>
       </c>
       <c r="M35" t="n">
-        <v>983.1596624752756</v>
+        <v>983.1596624752754</v>
       </c>
       <c r="N35" t="n">
         <v>1345.048575865875</v>
@@ -6958,31 +6958,31 @@
         <v>1919.203757902038</v>
       </c>
       <c r="Q35" t="n">
-        <v>2055.593298256084</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="R35" t="n">
-        <v>2055.593298256084</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="S35" t="n">
-        <v>2055.593298256084</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="T35" t="n">
-        <v>2055.593298256084</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="U35" t="n">
-        <v>2055.593298256084</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="V35" t="n">
-        <v>2055.593298256084</v>
+        <v>2055.593298256083</v>
       </c>
       <c r="W35" t="n">
-        <v>2055.593298256084</v>
+        <v>1826.766841936137</v>
       </c>
       <c r="X35" t="n">
-        <v>1806.069738945173</v>
+        <v>1577.243282625226</v>
       </c>
       <c r="Y35" t="n">
-        <v>1539.872605919529</v>
+        <v>1311.046149599582</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>435.3734882996346</v>
+        <v>683.2578861999707</v>
       </c>
       <c r="C36" t="n">
-        <v>260.9204590185076</v>
+        <v>508.8048569188437</v>
       </c>
       <c r="D36" t="n">
-        <v>111.9860493572563</v>
+        <v>359.8704472575924</v>
       </c>
       <c r="E36" t="n">
-        <v>76.69079330196891</v>
+        <v>324.5751912023051</v>
       </c>
       <c r="F36" t="n">
-        <v>54.09843427902198</v>
+        <v>178.0406332291901</v>
       </c>
       <c r="G36" t="n">
-        <v>41.11186596512169</v>
+        <v>41.11186596512167</v>
       </c>
       <c r="H36" t="n">
-        <v>41.11186596512169</v>
+        <v>41.11186596512167</v>
       </c>
       <c r="I36" t="n">
-        <v>41.11186596512169</v>
+        <v>41.11186596512167</v>
       </c>
       <c r="J36" t="n">
         <v>82.40951819862201</v>
@@ -7025,7 +7025,7 @@
         <v>477.4692118368899</v>
       </c>
       <c r="M36" t="n">
-        <v>784.2706060465487</v>
+        <v>784.2706060465486</v>
       </c>
       <c r="N36" t="n">
         <v>1113.600765160644</v>
@@ -7040,28 +7040,28 @@
         <v>1684.156828438028</v>
       </c>
       <c r="R36" t="n">
-        <v>1684.156828438028</v>
+        <v>1648.891495115218</v>
       </c>
       <c r="S36" t="n">
-        <v>1668.154122660328</v>
+        <v>1559.791589886943</v>
       </c>
       <c r="T36" t="n">
-        <v>1597.173285929339</v>
+        <v>1488.810753155953</v>
       </c>
       <c r="U36" t="n">
-        <v>1493.010423073351</v>
+        <v>1384.647890299965</v>
       </c>
       <c r="V36" t="n">
-        <v>1273.437981018391</v>
+        <v>1149.495782068223</v>
       </c>
       <c r="W36" t="n">
-        <v>1019.200624290189</v>
+        <v>895.2584253400211</v>
       </c>
       <c r="X36" t="n">
-        <v>811.3491240846565</v>
+        <v>811.3491240846564</v>
       </c>
       <c r="Y36" t="n">
-        <v>603.5888253197027</v>
+        <v>727.5310242698706</v>
       </c>
     </row>
     <row r="37">
@@ -7086,37 +7086,37 @@
         <v>111.8381195227309</v>
       </c>
       <c r="G37" t="n">
-        <v>67.6032455557453</v>
+        <v>67.60324555574529</v>
       </c>
       <c r="H37" t="n">
-        <v>41.11186596512169</v>
+        <v>41.11186596512167</v>
       </c>
       <c r="I37" t="n">
-        <v>53.22094569762567</v>
+        <v>41.11186596512167</v>
       </c>
       <c r="J37" t="n">
-        <v>153.6581598568533</v>
+        <v>41.11186596512167</v>
       </c>
       <c r="K37" t="n">
-        <v>257.0362027565197</v>
+        <v>148.0943188597183</v>
       </c>
       <c r="L37" t="n">
-        <v>465.1188624429253</v>
+        <v>234.701229355064</v>
       </c>
       <c r="M37" t="n">
-        <v>681.1677385806112</v>
+        <v>450.7501054927499</v>
       </c>
       <c r="N37" t="n">
-        <v>781.3496538557268</v>
+        <v>672.4077699589253</v>
       </c>
       <c r="O37" t="n">
-        <v>975.0465277985966</v>
+        <v>866.104643901795</v>
       </c>
       <c r="P37" t="n">
-        <v>1017.782205474129</v>
+        <v>1030.316070768387</v>
       </c>
       <c r="Q37" t="n">
-        <v>1113.258144807379</v>
+        <v>1125.792010101637</v>
       </c>
       <c r="R37" t="n">
         <v>1125.792010101637</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1277.214964805575</v>
+        <v>1266.77490169439</v>
       </c>
       <c r="C38" t="n">
-        <v>1032.194646815332</v>
+        <v>1021.754583704147</v>
       </c>
       <c r="D38" t="n">
         <v>882.1891051199389</v>
@@ -7171,19 +7171,19 @@
         <v>41.11186596512169</v>
       </c>
       <c r="I38" t="n">
-        <v>41.11186596512169</v>
+        <v>41.11186596512188</v>
       </c>
       <c r="J38" t="n">
-        <v>142.0456984978094</v>
+        <v>142.04569849781</v>
       </c>
       <c r="K38" t="n">
-        <v>344.0578673133668</v>
+        <v>344.0578673133672</v>
       </c>
       <c r="L38" t="n">
-        <v>631.5735877248947</v>
+        <v>631.573587724895</v>
       </c>
       <c r="M38" t="n">
-        <v>983.1596624752756</v>
+        <v>983.1596624752759</v>
       </c>
       <c r="N38" t="n">
         <v>1345.048575865875</v>
@@ -7201,25 +7201,25 @@
         <v>2055.593298256084</v>
       </c>
       <c r="S38" t="n">
-        <v>2055.593298256084</v>
+        <v>2045.153235144899</v>
       </c>
       <c r="T38" t="n">
-        <v>2055.593298256084</v>
+        <v>2045.153235144899</v>
       </c>
       <c r="U38" t="n">
-        <v>2055.593298256084</v>
+        <v>2045.153235144899</v>
       </c>
       <c r="V38" t="n">
-        <v>2055.593298256084</v>
+        <v>2045.153235144899</v>
       </c>
       <c r="W38" t="n">
-        <v>2055.593298256084</v>
+        <v>2045.153235144899</v>
       </c>
       <c r="X38" t="n">
-        <v>1806.069738945173</v>
+        <v>1795.629675833987</v>
       </c>
       <c r="Y38" t="n">
-        <v>1539.872605919529</v>
+        <v>1529.432542808344</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>683.2578861999708</v>
+        <v>543.7360210730203</v>
       </c>
       <c r="C39" t="n">
-        <v>508.8048569188438</v>
+        <v>369.2829917918933</v>
       </c>
       <c r="D39" t="n">
-        <v>359.8704472575925</v>
+        <v>220.3485821306421</v>
       </c>
       <c r="E39" t="n">
-        <v>200.632992252137</v>
+        <v>185.0533260753547</v>
       </c>
       <c r="F39" t="n">
-        <v>54.09843427902198</v>
+        <v>162.4609670524077</v>
       </c>
       <c r="G39" t="n">
-        <v>41.11186596512169</v>
+        <v>137.0769136031476</v>
       </c>
       <c r="H39" t="n">
         <v>41.11186596512169</v>
@@ -7262,7 +7262,7 @@
         <v>477.4692118368899</v>
       </c>
       <c r="M39" t="n">
-        <v>784.2706060465487</v>
+        <v>784.2706060465486</v>
       </c>
       <c r="N39" t="n">
         <v>1113.600765160644</v>
@@ -7286,19 +7286,19 @@
         <v>1597.173285929339</v>
       </c>
       <c r="U39" t="n">
-        <v>1493.010423073351</v>
+        <v>1369.068224123183</v>
       </c>
       <c r="V39" t="n">
-        <v>1381.800513791777</v>
+        <v>1133.91611589144</v>
       </c>
       <c r="W39" t="n">
-        <v>1251.505356013743</v>
+        <v>879.6787591632387</v>
       </c>
       <c r="X39" t="n">
-        <v>1059.233521984993</v>
+        <v>795.7694579078741</v>
       </c>
       <c r="Y39" t="n">
-        <v>851.4732232200388</v>
+        <v>711.9513580930883</v>
       </c>
     </row>
     <row r="40">
@@ -7329,31 +7329,31 @@
         <v>41.11186596512169</v>
       </c>
       <c r="I40" t="n">
-        <v>53.22094569762567</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="J40" t="n">
-        <v>153.6581598568533</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="K40" t="n">
-        <v>319.4435716073037</v>
+        <v>206.8972777155721</v>
       </c>
       <c r="L40" t="n">
-        <v>527.5262312937093</v>
+        <v>414.9799374019777</v>
       </c>
       <c r="M40" t="n">
-        <v>681.1677385806111</v>
+        <v>631.0288135396635</v>
       </c>
       <c r="N40" t="n">
-        <v>781.3496538557267</v>
+        <v>852.6864780058389</v>
       </c>
       <c r="O40" t="n">
-        <v>853.5707786075368</v>
+        <v>924.9076027576489</v>
       </c>
       <c r="P40" t="n">
-        <v>1017.782205474129</v>
+        <v>1089.119029624241</v>
       </c>
       <c r="Q40" t="n">
-        <v>1113.258144807379</v>
+        <v>1125.792010101637</v>
       </c>
       <c r="R40" t="n">
         <v>1125.792010101637</v>
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>686.4212704113116</v>
+        <v>1259.306892014844</v>
       </c>
       <c r="C41" t="n">
-        <v>686.4212704113116</v>
+        <v>1259.306892014844</v>
       </c>
       <c r="D41" t="n">
-        <v>397.0548711412036</v>
+        <v>969.940492744736</v>
       </c>
       <c r="E41" t="n">
-        <v>397.0548711412036</v>
+        <v>969.940492744736</v>
       </c>
       <c r="F41" t="n">
-        <v>54.96826568823857</v>
+        <v>627.8538872917711</v>
       </c>
       <c r="G41" t="n">
-        <v>54.96826568823857</v>
+        <v>280.6235080109439</v>
       </c>
       <c r="H41" t="n">
-        <v>54.96826568823857</v>
+        <v>41.11186596512169</v>
       </c>
       <c r="I41" t="n">
         <v>41.11186596512169</v>
       </c>
       <c r="J41" t="n">
-        <v>142.0456984978099</v>
+        <v>142.0456984978102</v>
       </c>
       <c r="K41" t="n">
-        <v>344.0578673133671</v>
+        <v>344.0578673133675</v>
       </c>
       <c r="L41" t="n">
-        <v>631.5735877248951</v>
+        <v>631.5735877248956</v>
       </c>
       <c r="M41" t="n">
-        <v>983.159662475276</v>
+        <v>983.1596624752763</v>
       </c>
       <c r="N41" t="n">
         <v>1345.048575865876</v>
@@ -7438,25 +7438,25 @@
         <v>2055.593298256084</v>
       </c>
       <c r="S41" t="n">
-        <v>1990.110335531373</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="T41" t="n">
-        <v>1848.403869657792</v>
+        <v>2055.593298256084</v>
       </c>
       <c r="U41" t="n">
-        <v>1663.688113991274</v>
+        <v>1870.877542589566</v>
       </c>
       <c r="V41" t="n">
-        <v>1401.524525984346</v>
+        <v>1608.713954582638</v>
       </c>
       <c r="W41" t="n">
-        <v>1117.655170050874</v>
+        <v>1324.844598649167</v>
       </c>
       <c r="X41" t="n">
-        <v>813.0887111264366</v>
+        <v>1259.306892014844</v>
       </c>
       <c r="Y41" t="n">
-        <v>686.4212704113116</v>
+        <v>1259.306892014844</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>530.262320628845</v>
+        <v>558.6686361049522</v>
       </c>
       <c r="C42" t="n">
-        <v>424.7085906843605</v>
+        <v>453.1149061604677</v>
       </c>
       <c r="D42" t="n">
-        <v>344.6734803597517</v>
+        <v>373.0797958358589</v>
       </c>
       <c r="E42" t="n">
-        <v>213.8423408304036</v>
+        <v>282.7416401670459</v>
       </c>
       <c r="F42" t="n">
-        <v>136.2070821939311</v>
+        <v>136.2070821939309</v>
       </c>
       <c r="G42" t="n">
-        <v>68.17761426650512</v>
+        <v>68.17761426650507</v>
       </c>
       <c r="H42" t="n">
         <v>41.11186596512169</v>
@@ -7499,7 +7499,7 @@
         <v>477.4692118368899</v>
       </c>
       <c r="M42" t="n">
-        <v>784.2706060465487</v>
+        <v>784.2706060465486</v>
       </c>
       <c r="N42" t="n">
         <v>1113.600765160644</v>
@@ -7520,22 +7520,22 @@
         <v>1613.111223046803</v>
       </c>
       <c r="T42" t="n">
-        <v>1418.188187365645</v>
+        <v>1487.087486702288</v>
       </c>
       <c r="U42" t="n">
-        <v>1258.982424896132</v>
+        <v>1327.881724232774</v>
       </c>
       <c r="V42" t="n">
-        <v>1092.729616001031</v>
+        <v>1161.628915337674</v>
       </c>
       <c r="W42" t="n">
-        <v>907.3915586094722</v>
+        <v>976.2908579461151</v>
       </c>
       <c r="X42" t="n">
-        <v>768.439357740582</v>
+        <v>837.3386570772249</v>
       </c>
       <c r="Y42" t="n">
-        <v>629.5783583122706</v>
+        <v>657.9846737883777</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>602.870541337086</v>
+        <v>602.8705413370858</v>
       </c>
       <c r="C43" t="n">
-        <v>502.8336577458215</v>
+        <v>502.8336577458214</v>
       </c>
       <c r="D43" t="n">
-        <v>421.6163176701283</v>
+        <v>421.6163176701282</v>
       </c>
       <c r="E43" t="n">
-        <v>342.6025234243777</v>
+        <v>342.6025234243776</v>
       </c>
       <c r="F43" t="n">
         <v>264.6118752631098</v>
       </c>
       <c r="G43" t="n">
-        <v>165.3341016825986</v>
+        <v>165.3341016825985</v>
       </c>
       <c r="H43" t="n">
-        <v>83.7998224784494</v>
+        <v>83.79982247844936</v>
       </c>
       <c r="I43" t="n">
         <v>41.11186596512169</v>
@@ -7572,19 +7572,19 @@
         <v>120.901413122629</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4156076430688</v>
+        <v>338.415607643069</v>
       </c>
       <c r="L43" t="n">
-        <v>653.4006759443968</v>
+        <v>653.4006759443971</v>
       </c>
       <c r="M43" t="n">
-        <v>992.2265704712173</v>
+        <v>992.2265704712177</v>
       </c>
       <c r="N43" t="n">
         <v>1330.036228702194</v>
       </c>
       <c r="O43" t="n">
-        <v>1631.19680643607</v>
+        <v>1631.196806436071</v>
       </c>
       <c r="P43" t="n">
         <v>1875.117185072347</v>
@@ -7593,7 +7593,7 @@
         <v>1981.335107288354</v>
       </c>
       <c r="R43" t="n">
-        <v>1939.080561204323</v>
+        <v>1939.080561204324</v>
       </c>
       <c r="S43" t="n">
         <v>1808.029331172158</v>
@@ -7611,10 +7611,10 @@
         <v>1026.603238198946</v>
       </c>
       <c r="X43" t="n">
-        <v>867.5129866375709</v>
+        <v>867.5129866375706</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.6197068306833</v>
+        <v>715.619706830683</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1433.326298604168</v>
+        <v>1047.317803960516</v>
       </c>
       <c r="C44" t="n">
-        <v>1133.263081000399</v>
+        <v>1047.317803960516</v>
       </c>
       <c r="D44" t="n">
         <v>1047.317803960516</v>
@@ -7651,13 +7651,13 @@
         <v>142.0456984978098</v>
       </c>
       <c r="K44" t="n">
-        <v>344.0578673133671</v>
+        <v>344.057867313367</v>
       </c>
       <c r="L44" t="n">
-        <v>631.5735877248945</v>
+        <v>631.5735877248948</v>
       </c>
       <c r="M44" t="n">
-        <v>983.1596624752756</v>
+        <v>983.1596624752757</v>
       </c>
       <c r="N44" t="n">
         <v>1345.048575865875</v>
@@ -7675,25 +7675,25 @@
         <v>2055.593298256084</v>
       </c>
       <c r="S44" t="n">
-        <v>2055.593298256084</v>
+        <v>2012.680598867264</v>
       </c>
       <c r="T44" t="n">
-        <v>2055.593298256084</v>
+        <v>1870.974132993683</v>
       </c>
       <c r="U44" t="n">
-        <v>2055.593298256084</v>
+        <v>1686.258377327164</v>
       </c>
       <c r="V44" t="n">
-        <v>2055.593298256084</v>
+        <v>1686.258377327164</v>
       </c>
       <c r="W44" t="n">
-        <v>2055.593298256084</v>
+        <v>1686.258377327164</v>
       </c>
       <c r="X44" t="n">
-        <v>1751.026839331647</v>
+        <v>1686.258377327164</v>
       </c>
       <c r="Y44" t="n">
-        <v>1751.026839331647</v>
+        <v>1365.018344687995</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>489.7693367683097</v>
+        <v>599.1616199654879</v>
       </c>
       <c r="C45" t="n">
-        <v>384.2156068238252</v>
+        <v>493.6078900210035</v>
       </c>
       <c r="D45" t="n">
-        <v>304.1804964992165</v>
+        <v>413.5727796963947</v>
       </c>
       <c r="E45" t="n">
-        <v>213.8423408304035</v>
+        <v>282.7416401670459</v>
       </c>
       <c r="F45" t="n">
-        <v>136.207082193931</v>
+        <v>136.2070821939309</v>
       </c>
       <c r="G45" t="n">
-        <v>68.17761426650509</v>
+        <v>68.17761426650507</v>
       </c>
       <c r="H45" t="n">
         <v>41.11186596512169</v>
@@ -7736,7 +7736,7 @@
         <v>477.4692118368899</v>
       </c>
       <c r="M45" t="n">
-        <v>784.2706060465487</v>
+        <v>784.2706060465486</v>
       </c>
       <c r="N45" t="n">
         <v>1113.600765160644</v>
@@ -7754,25 +7754,25 @@
         <v>1684.156828438028</v>
       </c>
       <c r="S45" t="n">
-        <v>1572.618239186267</v>
+        <v>1613.111223046803</v>
       </c>
       <c r="T45" t="n">
-        <v>1446.594502841752</v>
+        <v>1487.087486702288</v>
       </c>
       <c r="U45" t="n">
-        <v>1287.388740372239</v>
+        <v>1327.881724232774</v>
       </c>
       <c r="V45" t="n">
-        <v>1121.135931477138</v>
+        <v>1161.628915337674</v>
       </c>
       <c r="W45" t="n">
-        <v>935.7978740855795</v>
+        <v>976.2908579461151</v>
       </c>
       <c r="X45" t="n">
-        <v>796.8456732166891</v>
+        <v>837.3386570772249</v>
       </c>
       <c r="Y45" t="n">
-        <v>657.9846737883777</v>
+        <v>698.4776576489135</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>602.8705413370857</v>
+        <v>602.8705413370869</v>
       </c>
       <c r="C46" t="n">
-        <v>502.8336577458213</v>
+        <v>502.8336577458226</v>
       </c>
       <c r="D46" t="n">
-        <v>421.6163176701281</v>
+        <v>421.6163176701294</v>
       </c>
       <c r="E46" t="n">
-        <v>342.6025234243775</v>
+        <v>342.6025234243788</v>
       </c>
       <c r="F46" t="n">
         <v>264.6118752631097</v>
       </c>
       <c r="G46" t="n">
-        <v>165.3341016825986</v>
+        <v>165.3341016825985</v>
       </c>
       <c r="H46" t="n">
         <v>83.79982247844936</v>
@@ -7809,10 +7809,10 @@
         <v>120.901413122629</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4156076430689</v>
+        <v>338.415607643069</v>
       </c>
       <c r="L46" t="n">
-        <v>653.400675944397</v>
+        <v>653.4006759443971</v>
       </c>
       <c r="M46" t="n">
         <v>992.2265704712177</v>
@@ -7830,28 +7830,28 @@
         <v>1981.335107288354</v>
       </c>
       <c r="R46" t="n">
-        <v>1939.080561204323</v>
+        <v>1939.080561204324</v>
       </c>
       <c r="S46" t="n">
-        <v>1808.029331172157</v>
+        <v>1808.029331172158</v>
       </c>
       <c r="T46" t="n">
-        <v>1653.135732740324</v>
+        <v>1653.135732740325</v>
       </c>
       <c r="U46" t="n">
-        <v>1432.906297768508</v>
+        <v>1432.906297768509</v>
       </c>
       <c r="V46" t="n">
-        <v>1247.121108899263</v>
+        <v>1247.121108899265</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.603238198945</v>
+        <v>1026.603238198946</v>
       </c>
       <c r="X46" t="n">
-        <v>867.5129866375704</v>
+        <v>867.5129866375717</v>
       </c>
       <c r="Y46" t="n">
-        <v>715.6197068306828</v>
+        <v>715.6197068306841</v>
       </c>
     </row>
   </sheetData>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272405</v>
       </c>
       <c r="K16" t="n">
         <v>106.7437663446525</v>
@@ -9102,7 +9102,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140408</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50.54812744054709</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444618</v>
+        <v>50.27911956260488</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9342,7 +9342,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>50.54812744054709</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>16.64287823988155</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9579,7 +9579,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,22 +9795,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>171.8177168444618</v>
+        <v>16.64287823988155</v>
       </c>
       <c r="O25" t="n">
-        <v>132.2118760607871</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>136.9826422980944</v>
+        <v>314.5235353202045</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>13.71783572588569</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.82813309746378</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>140.2894012148454</v>
+        <v>41.29447701608498</v>
       </c>
       <c r="U11" t="n">
-        <v>182.8685981098532</v>
+        <v>182.8685981098533</v>
       </c>
       <c r="V11" t="n">
-        <v>259.5419521268588</v>
+        <v>259.5419521268589</v>
       </c>
       <c r="W11" t="n">
-        <v>281.0306623741369</v>
+        <v>281.030662374137</v>
       </c>
       <c r="X11" t="n">
-        <v>301.5207943351929</v>
+        <v>301.520794335193</v>
       </c>
       <c r="Y11" t="n">
         <v>318.0276323127775</v>
@@ -23497,22 +23497,22 @@
         <v>314.5235353202045</v>
       </c>
       <c r="C14" t="n">
-        <v>297.0625854277314</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>286.4727352774069</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>313.7200637289857</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>338.6657393984353</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>154.2045750165541</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>64.82813309746381</v>
       </c>
       <c r="T14" t="n">
-        <v>83.5348593448812</v>
+        <v>140.2894012148454</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.8685981098533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>259.5419521268589</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>281.030662374137</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>301.520794335193</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>223.3986898994783</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>51.11029737157806</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>126.5715654889597</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>169.1507623839675</v>
+        <v>104.4456677595542</v>
       </c>
       <c r="V17" t="n">
         <v>245.8241164009731</v>
       </c>
       <c r="W17" t="n">
-        <v>105.8369758507139</v>
+        <v>267.3128266482512</v>
       </c>
       <c r="X17" t="n">
         <v>287.8029586093072</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>304.3097965868918</v>
       </c>
     </row>
     <row r="18">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>136.9169579620945</v>
+        <v>283.3447497018458</v>
       </c>
       <c r="D20" t="n">
-        <v>272.7548995515211</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>330.0402397621332</v>
       </c>
       <c r="H20" t="n">
-        <v>223.3986898994783</v>
+        <v>19.68555794911492</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>105.3620609267238</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>300.0022280031</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>324.9479036725496</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>118.7854979354932</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>223.3986898994783</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.11029737157804</v>
+        <v>51.11029737157806</v>
       </c>
       <c r="T23" t="n">
         <v>126.5715654889597</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>169.1507623839675</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>245.8241164009731</v>
       </c>
       <c r="W23" t="n">
         <v>267.3128266482512</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>297.0625854277315</v>
+        <v>297.0625854277314</v>
       </c>
       <c r="D26" t="n">
-        <v>286.4727352774069</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>313.7200637289857</v>
+        <v>85.63112451943095</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>338.6657393984353</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>343.7580754880189</v>
       </c>
       <c r="H26" t="n">
         <v>237.116525625364</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>64.82813309746378</v>
       </c>
       <c r="T26" t="n">
-        <v>140.2894012148454</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>108.9077102596971</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>301.5207943351929</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>318.0276323127775</v>
       </c>
     </row>
     <row r="27">
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>297.0625854277315</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>286.4727352774069</v>
       </c>
       <c r="E29" t="n">
-        <v>313.7200637289857</v>
+        <v>232.9418080432931</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>237.1165256253641</v>
+        <v>237.116525625364</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>13.71783572588569</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>64.82813309746378</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>140.2894012148454</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>182.8685981098532</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>259.5419521268588</v>
       </c>
       <c r="W29" t="n">
-        <v>262.9149472004269</v>
+        <v>281.0306623741369</v>
       </c>
       <c r="X29" t="n">
-        <v>301.520794335193</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>83.47477838157744</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>284.173268781045</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>208.4637563652529</v>
       </c>
       <c r="H32" t="n">
-        <v>182.6240550079737</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>10.33566248007341</v>
+        <v>10.33566248007342</v>
       </c>
       <c r="T32" t="n">
         <v>85.79693059745505</v>
@@ -24979,7 +24979,7 @@
         <v>205.0494815094685</v>
       </c>
       <c r="W32" t="n">
-        <v>226.5381917567466</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25159,19 +25159,19 @@
         <v>242.5701148103411</v>
       </c>
       <c r="D35" t="n">
-        <v>23.52871857921014</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>67.44285532798395</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>182.6240550079737</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>10.33566248007341</v>
+        <v>10.33566248007342</v>
       </c>
       <c r="T35" t="n">
         <v>85.79693059745505</v>
@@ -25216,7 +25216,7 @@
         <v>205.0494815094685</v>
       </c>
       <c r="W35" t="n">
-        <v>226.5381917567466</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>83.47477838157741</v>
+        <v>93.81044086165096</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>10.33566248007341</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>85.79693059745505</v>
@@ -25630,7 +25630,7 @@
         <v>314.5235353202045</v>
       </c>
       <c r="C41" t="n">
-        <v>297.0625854277315</v>
+        <v>297.0625854277314</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>343.758075488019</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>237.1165256253641</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>13.71783572588569</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>64.82813309746375</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>140.2894012148454</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>236.6384647672136</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.6268660048038</v>
+        <v>318.0276323127775</v>
       </c>
     </row>
     <row r="42">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>297.0625854277314</v>
       </c>
       <c r="D44" t="n">
-        <v>201.3869110079227</v>
+        <v>286.4727352774069</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>237.116525625364</v>
       </c>
       <c r="I44" t="n">
-        <v>13.71783572588566</v>
+        <v>13.71783572588569</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.82813309746376</v>
+        <v>22.3445607025314</v>
       </c>
       <c r="T44" t="n">
-        <v>140.2894012148454</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>182.8685981098532</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>259.5419521268588</v>
@@ -25930,10 +25930,10 @@
         <v>281.0306623741369</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>301.5207943351929</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.0276323127775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>529001.1657582802</v>
+        <v>529001.1657582801</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>529001.1657582801</v>
+        <v>529001.1657582802</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>560726.272332835</v>
+        <v>560726.2723328349</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="C2" t="n">
         <v>819276.3387170384</v>
@@ -26322,40 +26322,40 @@
         <v>819276.3387170384</v>
       </c>
       <c r="E2" t="n">
-        <v>685816.6807973124</v>
+        <v>685816.6807973125</v>
       </c>
       <c r="F2" t="n">
-        <v>685816.6807973124</v>
+        <v>685816.6807973125</v>
       </c>
       <c r="G2" t="n">
-        <v>702195.7766540207</v>
+        <v>702195.7766540208</v>
       </c>
       <c r="H2" t="n">
         <v>702195.7766540205</v>
       </c>
       <c r="I2" t="n">
-        <v>702195.7766540202</v>
+        <v>702195.7766540204</v>
       </c>
       <c r="J2" t="n">
+        <v>685816.6807973136</v>
+      </c>
+      <c r="K2" t="n">
         <v>685816.6807973126</v>
       </c>
-      <c r="K2" t="n">
-        <v>685816.6807973125</v>
-      </c>
       <c r="L2" t="n">
-        <v>747635.0297771138</v>
+        <v>747635.0297771136</v>
       </c>
       <c r="M2" t="n">
-        <v>747635.0297771137</v>
+        <v>747635.0297771135</v>
       </c>
       <c r="N2" t="n">
         <v>747635.0297771136</v>
       </c>
       <c r="O2" t="n">
-        <v>685816.6807973124</v>
+        <v>685816.6807973125</v>
       </c>
       <c r="P2" t="n">
-        <v>685816.6807973137</v>
+        <v>685816.6807973135</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10974.26858070883</v>
+        <v>10974.2685807086</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>43593.9764939123</v>
+        <v>43593.97649391227</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54568.24507462089</v>
+        <v>54568.24507462088</v>
       </c>
       <c r="M3" t="n">
-        <v>128065.5180746523</v>
+        <v>128065.5180746522</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,10 +26441,10 @@
         <v>115547.9969010013</v>
       </c>
       <c r="J4" t="n">
-        <v>106502.566104009</v>
+        <v>106502.5661040091</v>
       </c>
       <c r="K4" t="n">
-        <v>106502.5661040091</v>
+        <v>106502.5661040092</v>
       </c>
       <c r="L4" t="n">
         <v>140806.5404809843</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>55060.76766200905</v>
+        <v>55060.76766200906</v>
       </c>
       <c r="F5" t="n">
         <v>55060.76766200905</v>
@@ -26493,19 +26493,19 @@
         <v>56214.01239364855</v>
       </c>
       <c r="J5" t="n">
+        <v>55060.76766200907</v>
+      </c>
+      <c r="K5" t="n">
         <v>55060.76766200906</v>
       </c>
-      <c r="K5" t="n">
-        <v>55060.76766200908</v>
-      </c>
       <c r="L5" t="n">
-        <v>59641.89517434247</v>
+        <v>59641.89517434245</v>
       </c>
       <c r="M5" t="n">
-        <v>59641.89517434247</v>
+        <v>59641.89517434244</v>
       </c>
       <c r="N5" t="n">
-        <v>59641.89517434247</v>
+        <v>59641.89517434245</v>
       </c>
       <c r="O5" t="n">
         <v>55060.76766200908</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317988.6430066259</v>
+        <v>318028.3652074392</v>
       </c>
       <c r="C6" t="n">
-        <v>317988.6430066261</v>
+        <v>318028.3652074391</v>
       </c>
       <c r="D6" t="n">
-        <v>317988.6430066261</v>
+        <v>318028.3652074391</v>
       </c>
       <c r="E6" t="n">
-        <v>-353493.5598883868</v>
+        <v>-350450.9953843798</v>
       </c>
       <c r="F6" t="n">
-        <v>520872.7198046201</v>
+        <v>523915.2843086269</v>
       </c>
       <c r="G6" t="n">
-        <v>516488.3489484052</v>
+        <v>519162.3837956365</v>
       </c>
       <c r="H6" t="n">
-        <v>527462.617529114</v>
+        <v>530136.6523763449</v>
       </c>
       <c r="I6" t="n">
-        <v>527462.6175291138</v>
+        <v>530136.6523763449</v>
       </c>
       <c r="J6" t="n">
-        <v>477278.743310708</v>
+        <v>480321.3078147158</v>
       </c>
       <c r="K6" t="n">
-        <v>520872.7198046201</v>
+        <v>523915.284308627</v>
       </c>
       <c r="L6" t="n">
-        <v>490783.1805449868</v>
+        <v>492434.8321969479</v>
       </c>
       <c r="M6" t="n">
-        <v>417285.9075449553</v>
+        <v>418937.5591969166</v>
       </c>
       <c r="N6" t="n">
-        <v>545351.4256196076</v>
+        <v>547003.0772715688</v>
       </c>
       <c r="O6" t="n">
-        <v>520872.71980462</v>
+        <v>523915.2843086268</v>
       </c>
       <c r="P6" t="n">
-        <v>520872.7198046211</v>
+        <v>523915.2843086278</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="F2" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="G2" t="n">
         <v>81.92814206916179</v>
@@ -26709,10 +26709,10 @@
         <v>81.92814206916179</v>
       </c>
       <c r="J2" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="K2" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="L2" t="n">
         <v>122.7027769606664</v>
@@ -26724,10 +26724,10 @@
         <v>122.7027769606664</v>
       </c>
       <c r="O2" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="P2" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
     </row>
     <row r="3">
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>829.4209763552161</v>
+      </c>
+      <c r="F3" t="n">
         <v>829.420976355216</v>
-      </c>
-      <c r="F3" t="n">
-        <v>829.4209763552158</v>
       </c>
       <c r="G3" t="n">
         <v>829.4209763552161</v>
@@ -26758,28 +26758,28 @@
         <v>829.4209763552161</v>
       </c>
       <c r="I3" t="n">
-        <v>829.4209763552162</v>
+        <v>829.4209763552161</v>
       </c>
       <c r="J3" t="n">
-        <v>829.4209763552162</v>
+        <v>829.4209763552161</v>
       </c>
       <c r="K3" t="n">
-        <v>829.4209763552162</v>
+        <v>829.420976355216</v>
       </c>
       <c r="L3" t="n">
-        <v>829.4209763552162</v>
+        <v>829.4209763552161</v>
       </c>
       <c r="M3" t="n">
-        <v>829.4209763552162</v>
+        <v>829.4209763552161</v>
       </c>
       <c r="N3" t="n">
-        <v>829.4209763552162</v>
+        <v>829.4209763552161</v>
       </c>
       <c r="O3" t="n">
-        <v>829.4209763552162</v>
+        <v>829.4209763552161</v>
       </c>
       <c r="P3" t="n">
-        <v>829.4209763552162</v>
+        <v>829.4209763552161</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.8983245640209</v>
+        <v>513.898324564021</v>
       </c>
       <c r="F4" t="n">
         <v>513.8983245640209</v>
@@ -26813,16 +26813,16 @@
         <v>513.8983245640209</v>
       </c>
       <c r="J4" t="n">
-        <v>513.8983245640209</v>
+        <v>513.8983245640211</v>
       </c>
       <c r="K4" t="n">
-        <v>513.8983245640212</v>
+        <v>513.8983245640211</v>
       </c>
       <c r="L4" t="n">
         <v>513.8983245640211</v>
       </c>
       <c r="M4" t="n">
-        <v>513.8983245640211</v>
+        <v>513.8983245640209</v>
       </c>
       <c r="N4" t="n">
         <v>513.8983245640211</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.71783572588571</v>
+        <v>13.71783572588575</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.49247061739037</v>
+        <v>54.49247061739033</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.21030634327612</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>829.420976355216</v>
+        <v>829.4209763552161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.8983245640209</v>
+        <v>513.898324564021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.8983245640209</v>
+        <v>513.8983245640205</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13.71783572588571</v>
+        <v>13.71783572588575</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.49247061739037</v>
+        <v>54.49247061739033</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.8983245640209</v>
+        <v>513.898324564021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="C11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="D11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="E11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="F11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="G11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="H11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="I11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.133817589113647</v>
+        <v>6.133817589113619</v>
       </c>
       <c r="S11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="T11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="U11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="V11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="W11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="X11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="Y11" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
     </row>
     <row r="12">
@@ -28168,28 +28168,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="C12" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="D12" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="E12" t="n">
-        <v>28.12225232134656</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="G12" t="n">
-        <v>68.21030634327609</v>
+        <v>28.12225232134635</v>
       </c>
       <c r="H12" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="I12" t="n">
-        <v>38.09827939256182</v>
+        <v>38.09827939256181</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28216,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.91267998958241</v>
+        <v>34.9126799895824</v>
       </c>
       <c r="S12" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="T12" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="U12" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="V12" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="W12" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="X12" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="Y12" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="C13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="D13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="E13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="F13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="G13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="H13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="I13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="J13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="K13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="L13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="M13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="N13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="O13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="P13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="R13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="S13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="T13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="U13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="V13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="W13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="X13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="Y13" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="C14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="D14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="E14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="F14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="G14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="H14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="I14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.133817589113704</v>
+        <v>6.133817589113647</v>
       </c>
       <c r="S14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="T14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="U14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="V14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="W14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="X14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="Y14" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
     </row>
     <row r="15">
@@ -28405,28 +28405,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.21030634327609</v>
+        <v>28.12225232134693</v>
       </c>
       <c r="C15" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="D15" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="E15" t="n">
-        <v>28.12225232134702</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="G15" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="H15" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="I15" t="n">
-        <v>38.09827939256184</v>
+        <v>38.09827939256182</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28453,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.91267998958244</v>
+        <v>34.91267998958241</v>
       </c>
       <c r="S15" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="T15" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="U15" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="V15" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="W15" t="n">
-        <v>68.21030634327609</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="Y15" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
     </row>
     <row r="16">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="C16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="D16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="E16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="F16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="G16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="H16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="I16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="J16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="K16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="L16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="M16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="N16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="O16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="P16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="R16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="S16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="T16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="U16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="V16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="W16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="X16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
       <c r="Y16" t="n">
-        <v>68.21030634327609</v>
+        <v>68.21030634327605</v>
       </c>
     </row>
     <row r="17">
@@ -28648,10 +28648,10 @@
         <v>81.92814206916179</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>81.92814206916179</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>81.92814206916179</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28693,7 +28693,7 @@
         <v>34.9126799895824</v>
       </c>
       <c r="S18" t="n">
-        <v>81.92814206916179</v>
+        <v>27.3645077490409</v>
       </c>
       <c r="T18" t="n">
         <v>81.92814206916179</v>
@@ -28702,10 +28702,10 @@
         <v>81.92814206916179</v>
       </c>
       <c r="V18" t="n">
-        <v>27.36450774904077</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>81.92814206916179</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>81.92814206916179</v>
@@ -28879,16 +28879,16 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>27.36450774904077</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
         <v>81.92814206916179</v>
-      </c>
-      <c r="C21" t="n">
-        <v>65.46278714160265</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28900,7 +28900,7 @@
         <v>81.92814206916179</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.09827939256181</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>81.92814206916179</v>
       </c>
       <c r="I23" t="n">
-        <v>81.92814206916177</v>
+        <v>81.92814206916179</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29085,7 +29085,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.133817589112212</v>
+        <v>6.133817589112718</v>
       </c>
       <c r="S23" t="n">
         <v>81.92814206916179</v>
@@ -29116,19 +29116,19 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27.36450774904074</v>
+      </c>
+      <c r="F24" t="n">
         <v>81.92814206916179</v>
-      </c>
-      <c r="C24" t="n">
-        <v>62.27718773862318</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>81.92814206916179</v>
@@ -29164,7 +29164,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>34.9126799895824</v>
       </c>
       <c r="S24" t="n">
         <v>81.92814206916179</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="C26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="D26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="E26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="F26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="G26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="H26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="I26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6.133817589112212</v>
+        <v>6.133817589113619</v>
       </c>
       <c r="S26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="T26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="U26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="V26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="W26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="X26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="Y26" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
     </row>
     <row r="27">
@@ -29353,25 +29353,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="C27" t="n">
-        <v>68.21030634327607</v>
+        <v>28.12225232134585</v>
       </c>
       <c r="D27" t="n">
-        <v>63.03493231092827</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="G27" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="H27" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="I27" t="n">
         <v>38.09827939256181</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>34.9126799895824</v>
       </c>
       <c r="S27" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="T27" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="U27" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="V27" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="W27" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="X27" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="Y27" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="C28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="D28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="E28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="F28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="G28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="H28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="I28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="J28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="K28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="L28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="M28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="N28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="O28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="P28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="R28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="S28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="T28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="U28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="V28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="W28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="X28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.21030634327607</v>
+        <v>68.21030634327609</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="C29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="D29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="E29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="F29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="G29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="H29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="I29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29559,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.13381758911359</v>
+        <v>6.133817589114548</v>
       </c>
       <c r="S29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="T29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="U29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="V29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="W29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="X29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="Y29" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="C30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="D30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="E30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="F30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="G30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="H30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="I30" t="n">
-        <v>32.92290536021441</v>
+        <v>38.09827939256182</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>34.91267998958241</v>
       </c>
       <c r="S30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="T30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="U30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="V30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>28.12225232134645</v>
       </c>
       <c r="X30" t="n">
-        <v>68.21030634327605</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="C31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="D31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="E31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="F31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="G31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="H31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="I31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="J31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="K31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="L31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="M31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="N31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="O31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="P31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="R31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="S31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="T31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="U31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="V31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="W31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="X31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.21030634327605</v>
+        <v>68.21030634327609</v>
       </c>
     </row>
     <row r="32">
@@ -29769,7 +29769,7 @@
         <v>122.7027769606664</v>
       </c>
       <c r="I32" t="n">
-        <v>81.92814206916177</v>
+        <v>81.92814206916179</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29796,7 +29796,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.13381758911359</v>
+        <v>6.133817589113619</v>
       </c>
       <c r="S32" t="n">
         <v>122.7027769606664</v>
@@ -29827,28 +29827,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="D33" t="n">
-        <v>50.33654950459689</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>122.7027769606664</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>122.7027769606664</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>122.7027769606664</v>
+        <v>88.43482889715862</v>
       </c>
       <c r="H33" t="n">
         <v>95.00539716164565</v>
       </c>
       <c r="I33" t="n">
-        <v>38.09827939256181</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29878,10 +29878,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>122.7027769606664</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>122.7027769606664</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>122.7027769606664</v>
@@ -29890,13 +29890,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
     </row>
     <row r="34">
@@ -29927,13 +29927,13 @@
         <v>122.7027769606664</v>
       </c>
       <c r="I34" t="n">
-        <v>122.7027769606664</v>
+        <v>110.4713832914705</v>
       </c>
       <c r="J34" t="n">
-        <v>59.6650306467431</v>
+        <v>21.25104548669916</v>
       </c>
       <c r="K34" t="n">
-        <v>122.7027769606664</v>
+        <v>50.64537882924026</v>
       </c>
       <c r="L34" t="n">
         <v>122.7027769606664</v>
@@ -29945,7 +29945,7 @@
         <v>122.7027769606664</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="P34" t="n">
         <v>122.7027769606664</v>
@@ -30006,7 +30006,7 @@
         <v>122.7027769606664</v>
       </c>
       <c r="I35" t="n">
-        <v>81.92814206916177</v>
+        <v>81.92814206916179</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30033,7 +30033,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.13381758911359</v>
+        <v>6.133817589113619</v>
       </c>
       <c r="S35" t="n">
         <v>122.7027769606664</v>
@@ -30064,7 +30064,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30076,10 +30076,10 @@
         <v>122.7027769606664</v>
       </c>
       <c r="F36" t="n">
-        <v>122.7027769606664</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>122.7027769606664</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>95.00539716164565</v>
@@ -30112,10 +30112,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.91267998958239</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>122.7027769606664</v>
+        <v>50.33654950459686</v>
       </c>
       <c r="T36" t="n">
         <v>122.7027769606664</v>
@@ -30124,16 +30124,16 @@
         <v>122.7027769606664</v>
       </c>
       <c r="V36" t="n">
-        <v>15.42386951501467</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
     </row>
     <row r="37">
@@ -30164,34 +30164,34 @@
         <v>122.7027769606664</v>
       </c>
       <c r="I37" t="n">
-        <v>122.7027769606664</v>
+        <v>110.4713832914705</v>
       </c>
       <c r="J37" t="n">
-        <v>122.7027769606664</v>
+        <v>21.25104548669916</v>
       </c>
       <c r="K37" t="n">
-        <v>59.66503064674323</v>
+        <v>63.30584882344034</v>
       </c>
       <c r="L37" t="n">
-        <v>122.7027769606664</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>122.7027769606664</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="O37" t="n">
         <v>122.7027769606664</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="Q37" t="n">
         <v>122.7027769606664</v>
       </c>
       <c r="R37" t="n">
-        <v>122.7027769606664</v>
+        <v>110.0423069664662</v>
       </c>
       <c r="S37" t="n">
         <v>122.7027769606664</v>
@@ -30243,7 +30243,7 @@
         <v>122.7027769606664</v>
       </c>
       <c r="I38" t="n">
-        <v>81.92814206916177</v>
+        <v>81.92814206916179</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30270,7 +30270,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.13381758911359</v>
+        <v>6.133817589113619</v>
       </c>
       <c r="S38" t="n">
         <v>122.7027769606664</v>
@@ -30310,16 +30310,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="G39" t="n">
-        <v>122.7027769606664</v>
+        <v>110.4292666766602</v>
       </c>
       <c r="H39" t="n">
-        <v>95.00539716164565</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>38.09827939256181</v>
@@ -30349,7 +30349,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.91267998958239</v>
+        <v>34.9126799895824</v>
       </c>
       <c r="S39" t="n">
         <v>122.7027769606664</v>
@@ -30358,19 +30358,19 @@
         <v>122.7027769606664</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>122.7027769606664</v>
       </c>
-      <c r="V39" t="n">
+      <c r="Y39" t="n">
         <v>122.7027769606664</v>
-      </c>
-      <c r="W39" t="n">
-        <v>122.7027769606664</v>
-      </c>
-      <c r="X39" t="n">
-        <v>15.42386951501459</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30401,10 +30401,10 @@
         <v>122.7027769606664</v>
       </c>
       <c r="I40" t="n">
-        <v>122.7027769606664</v>
+        <v>110.4713832914705</v>
       </c>
       <c r="J40" t="n">
-        <v>122.7027769606664</v>
+        <v>21.25104548669916</v>
       </c>
       <c r="K40" t="n">
         <v>122.7027769606664</v>
@@ -30413,10 +30413,10 @@
         <v>122.7027769606664</v>
       </c>
       <c r="M40" t="n">
-        <v>59.66503064674308</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>122.7027769606664</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30425,10 +30425,10 @@
         <v>122.7027769606664</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.7027769606664</v>
+        <v>63.3058488234404</v>
       </c>
       <c r="R40" t="n">
-        <v>122.7027769606664</v>
+        <v>110.0423069664662</v>
       </c>
       <c r="S40" t="n">
         <v>122.7027769606664</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="C41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="D41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="E41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="F41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="G41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="H41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="I41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>6.13381758911359</v>
+        <v>6.133817589113619</v>
       </c>
       <c r="S41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="T41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="U41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="V41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="W41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="X41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
     </row>
     <row r="42">
@@ -30538,25 +30538,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="C42" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="D42" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="E42" t="n">
-        <v>28.12225232134634</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="F42" t="n">
-        <v>68.21030634327606</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="H42" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="I42" t="n">
         <v>38.09827939256181</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.91267998958239</v>
+        <v>34.9126799895824</v>
       </c>
       <c r="S42" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="U42" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="V42" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="W42" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="X42" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="Y42" t="n">
-        <v>68.21030634327606</v>
+        <v>28.12225232134566</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="C43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="D43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="E43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="F43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="G43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="H43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="I43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="J43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="K43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="L43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="M43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="N43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="O43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="P43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="R43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="S43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="T43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="U43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="V43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="W43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="X43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.21030634327606</v>
+        <v>68.2103063432761</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="C44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="D44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="E44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="F44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="G44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="H44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="I44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>6.13381758911359</v>
+        <v>6.133817589113619</v>
       </c>
       <c r="S44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="T44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="U44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="V44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="W44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="X44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
     </row>
     <row r="45">
@@ -30775,25 +30775,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="C45" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="D45" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="E45" t="n">
-        <v>68.21030634327609</v>
+        <v>28.12225232134566</v>
       </c>
       <c r="F45" t="n">
-        <v>68.21030634327609</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="H45" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="I45" t="n">
         <v>38.09827939256181</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.91267998958239</v>
+        <v>34.9126799895824</v>
       </c>
       <c r="S45" t="n">
-        <v>28.12225232134566</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="T45" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="U45" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="V45" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="W45" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="X45" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="Y45" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="C46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="D46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="E46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="F46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="G46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="H46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="I46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="J46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="K46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="L46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="M46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="N46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="O46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="P46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="R46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="S46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="T46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="U46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="V46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="W46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="X46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.21030634327609</v>
+        <v>68.2103063432761</v>
       </c>
     </row>
   </sheetData>
@@ -31755,7 +31755,7 @@
         <v>3.334355683840062</v>
       </c>
       <c r="H11" t="n">
-        <v>34.14797014712704</v>
+        <v>34.14797014712705</v>
       </c>
       <c r="I11" t="n">
         <v>128.5477475012441</v>
@@ -31764,25 +31764,25 @@
         <v>282.9992707213207</v>
       </c>
       <c r="K11" t="n">
-        <v>424.1425468182706</v>
+        <v>424.1425468182707</v>
       </c>
       <c r="L11" t="n">
-        <v>526.186334577591</v>
+        <v>526.1863345775911</v>
       </c>
       <c r="M11" t="n">
         <v>585.4836824700817</v>
       </c>
       <c r="N11" t="n">
-        <v>594.9574205567923</v>
+        <v>594.9574205567924</v>
       </c>
       <c r="O11" t="n">
-        <v>561.8014212256077</v>
+        <v>561.8014212256078</v>
       </c>
       <c r="P11" t="n">
-        <v>479.484515280806</v>
+        <v>479.4845152808061</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.0729023532837</v>
+        <v>360.0729023532838</v>
       </c>
       <c r="R11" t="n">
         <v>209.4517202250185</v>
@@ -31843,19 +31843,19 @@
         <v>168.5524269025256</v>
       </c>
       <c r="K12" t="n">
-        <v>288.082944211981</v>
+        <v>288.0829442119811</v>
       </c>
       <c r="L12" t="n">
-        <v>387.363070136462</v>
+        <v>387.3630701364621</v>
       </c>
       <c r="M12" t="n">
         <v>452.0344321135927</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9984384612071</v>
+        <v>463.9984384612072</v>
       </c>
       <c r="O12" t="n">
-        <v>424.4679217390698</v>
+        <v>424.4679217390699</v>
       </c>
       <c r="P12" t="n">
         <v>340.672928948617</v>
@@ -31864,16 +31864,16 @@
         <v>227.730831092851</v>
       </c>
       <c r="R12" t="n">
-        <v>110.7668239743815</v>
+        <v>110.7668239743816</v>
       </c>
       <c r="S12" t="n">
         <v>33.13771542324847</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19092337047588</v>
+        <v>7.190923370475881</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1173708928804551</v>
+        <v>0.1173708928804552</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,10 +31916,10 @@
         <v>13.29792975205577</v>
       </c>
       <c r="I13" t="n">
-        <v>44.97909163578779</v>
+        <v>44.9790916357878</v>
       </c>
       <c r="J13" t="n">
-        <v>105.7443759526969</v>
+        <v>105.744375952697</v>
       </c>
       <c r="K13" t="n">
         <v>173.7704930790108</v>
@@ -31928,7 +31928,7 @@
         <v>222.3664040543148</v>
       </c>
       <c r="M13" t="n">
-        <v>234.454195004803</v>
+        <v>234.4541950048031</v>
       </c>
       <c r="N13" t="n">
         <v>228.8793982784813</v>
@@ -31943,16 +31943,16 @@
         <v>125.2425674296376</v>
       </c>
       <c r="R13" t="n">
-        <v>67.25108441070323</v>
+        <v>67.25108441070324</v>
       </c>
       <c r="S13" t="n">
-        <v>26.06557396185161</v>
+        <v>26.06557396185162</v>
       </c>
       <c r="T13" t="n">
-        <v>6.390620637491006</v>
+        <v>6.390620637491007</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08158239111690657</v>
+        <v>0.08158239111690659</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.334355683840061</v>
+        <v>3.334355683840062</v>
       </c>
       <c r="H14" t="n">
-        <v>34.14797014712703</v>
+        <v>34.14797014712704</v>
       </c>
       <c r="I14" t="n">
         <v>128.5477475012441</v>
       </c>
       <c r="J14" t="n">
-        <v>282.9992707213206</v>
+        <v>282.9992707213207</v>
       </c>
       <c r="K14" t="n">
-        <v>424.1425468182705</v>
+        <v>424.1425468182706</v>
       </c>
       <c r="L14" t="n">
-        <v>526.1863345775909</v>
+        <v>526.186334577591</v>
       </c>
       <c r="M14" t="n">
-        <v>585.4836824700815</v>
+        <v>585.4836824700817</v>
       </c>
       <c r="N14" t="n">
-        <v>594.9574205567922</v>
+        <v>594.9574205567923</v>
       </c>
       <c r="O14" t="n">
-        <v>561.8014212256074</v>
+        <v>561.8014212256077</v>
       </c>
       <c r="P14" t="n">
-        <v>479.4845152808059</v>
+        <v>479.484515280806</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.0729023532836</v>
+        <v>360.0729023532837</v>
       </c>
       <c r="R14" t="n">
-        <v>209.4517202250184</v>
+        <v>209.4517202250185</v>
       </c>
       <c r="S14" t="n">
-        <v>75.98163014550546</v>
+        <v>75.98163014550549</v>
       </c>
       <c r="T14" t="n">
-        <v>14.59614200600987</v>
+        <v>14.59614200600988</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2667484547072048</v>
+        <v>0.2667484547072049</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.784037571782917</v>
+        <v>1.784037571782918</v>
       </c>
       <c r="H15" t="n">
         <v>17.23004707485081</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42410060743816</v>
+        <v>61.42410060743818</v>
       </c>
       <c r="J15" t="n">
-        <v>168.5524269025255</v>
+        <v>168.5524269025256</v>
       </c>
       <c r="K15" t="n">
-        <v>288.0829442119809</v>
+        <v>288.082944211981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.3630701364619</v>
+        <v>387.363070136462</v>
       </c>
       <c r="M15" t="n">
-        <v>452.0344321135925</v>
+        <v>452.0344321135927</v>
       </c>
       <c r="N15" t="n">
-        <v>463.998438461207</v>
+        <v>463.9984384612071</v>
       </c>
       <c r="O15" t="n">
-        <v>424.4679217390697</v>
+        <v>424.4679217390698</v>
       </c>
       <c r="P15" t="n">
-        <v>340.6729289486169</v>
+        <v>340.672928948617</v>
       </c>
       <c r="Q15" t="n">
         <v>227.730831092851</v>
@@ -32104,10 +32104,10 @@
         <v>110.7668239743815</v>
       </c>
       <c r="S15" t="n">
-        <v>33.13771542324846</v>
+        <v>33.13771542324847</v>
       </c>
       <c r="T15" t="n">
-        <v>7.190923370475877</v>
+        <v>7.19092337047588</v>
       </c>
       <c r="U15" t="n">
         <v>0.1173708928804551</v>
@@ -32150,16 +32150,16 @@
         <v>1.495677170476619</v>
       </c>
       <c r="H16" t="n">
-        <v>13.29792975205576</v>
+        <v>13.29792975205577</v>
       </c>
       <c r="I16" t="n">
-        <v>44.97909163578777</v>
+        <v>44.97909163578779</v>
       </c>
       <c r="J16" t="n">
         <v>105.7443759526969</v>
       </c>
       <c r="K16" t="n">
-        <v>173.7704930790107</v>
+        <v>173.7704930790108</v>
       </c>
       <c r="L16" t="n">
         <v>222.3664040543148</v>
@@ -32168,10 +32168,10 @@
         <v>234.454195004803</v>
       </c>
       <c r="N16" t="n">
-        <v>228.8793982784812</v>
+        <v>228.8793982784813</v>
       </c>
       <c r="O16" t="n">
-        <v>211.407169514277</v>
+        <v>211.4071695142771</v>
       </c>
       <c r="P16" t="n">
         <v>180.8953552365539</v>
@@ -32180,16 +32180,16 @@
         <v>125.2425674296376</v>
       </c>
       <c r="R16" t="n">
-        <v>67.25108441070321</v>
+        <v>67.25108441070323</v>
       </c>
       <c r="S16" t="n">
         <v>26.06557396185161</v>
       </c>
       <c r="T16" t="n">
-        <v>6.390620637491004</v>
+        <v>6.390620637491006</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08158239111690656</v>
+        <v>0.08158239111690657</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.334355683840063</v>
+        <v>3.334355683840062</v>
       </c>
       <c r="H23" t="n">
         <v>34.14797014712705</v>
@@ -32709,25 +32709,25 @@
         <v>128.5477475012441</v>
       </c>
       <c r="J23" t="n">
-        <v>282.9992707213208</v>
+        <v>282.9992707213207</v>
       </c>
       <c r="K23" t="n">
         <v>424.1425468182707</v>
       </c>
       <c r="L23" t="n">
-        <v>526.1863345775912</v>
+        <v>526.1863345775911</v>
       </c>
       <c r="M23" t="n">
-        <v>585.4836824700818</v>
+        <v>585.4836824700817</v>
       </c>
       <c r="N23" t="n">
-        <v>594.9574205567925</v>
+        <v>594.9574205567924</v>
       </c>
       <c r="O23" t="n">
         <v>561.8014212256078</v>
       </c>
       <c r="P23" t="n">
-        <v>479.4845152808062</v>
+        <v>479.4845152808061</v>
       </c>
       <c r="Q23" t="n">
         <v>360.0729023532838</v>
@@ -32736,13 +32736,13 @@
         <v>209.4517202250185</v>
       </c>
       <c r="S23" t="n">
-        <v>75.98163014550551</v>
+        <v>75.98163014550549</v>
       </c>
       <c r="T23" t="n">
         <v>14.59614200600988</v>
       </c>
       <c r="U23" t="n">
-        <v>0.266748454707205</v>
+        <v>0.2667484547072049</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.784037571782918</v>
       </c>
       <c r="H24" t="n">
-        <v>17.23004707485082</v>
+        <v>17.23004707485081</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42410060743819</v>
+        <v>61.42410060743818</v>
       </c>
       <c r="J24" t="n">
         <v>168.5524269025256</v>
@@ -32797,19 +32797,19 @@
         <v>387.3630701364621</v>
       </c>
       <c r="M24" t="n">
-        <v>452.0344321135928</v>
+        <v>452.0344321135927</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9984384612073</v>
+        <v>463.9984384612072</v>
       </c>
       <c r="O24" t="n">
         <v>424.4679217390699</v>
       </c>
       <c r="P24" t="n">
-        <v>340.6729289486171</v>
+        <v>340.672928948617</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.7308310928511</v>
+        <v>227.730831092851</v>
       </c>
       <c r="R24" t="n">
         <v>110.7668239743816</v>
@@ -32818,7 +32818,7 @@
         <v>33.13771542324847</v>
       </c>
       <c r="T24" t="n">
-        <v>7.190923370475882</v>
+        <v>7.190923370475881</v>
       </c>
       <c r="U24" t="n">
         <v>0.1173708928804552</v>
@@ -32873,7 +32873,7 @@
         <v>173.7704930790108</v>
       </c>
       <c r="L25" t="n">
-        <v>222.3664040543149</v>
+        <v>222.3664040543148</v>
       </c>
       <c r="M25" t="n">
         <v>234.4541950048031</v>
@@ -32897,10 +32897,10 @@
         <v>26.06557396185162</v>
       </c>
       <c r="T25" t="n">
-        <v>6.390620637491008</v>
+        <v>6.390620637491007</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0815823911169066</v>
+        <v>0.08158239111690659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.334355683840063</v>
+        <v>3.334355683840062</v>
       </c>
       <c r="H26" t="n">
         <v>34.14797014712705</v>
@@ -32946,25 +32946,25 @@
         <v>128.5477475012441</v>
       </c>
       <c r="J26" t="n">
-        <v>282.9992707213208</v>
+        <v>282.9992707213207</v>
       </c>
       <c r="K26" t="n">
         <v>424.1425468182707</v>
       </c>
       <c r="L26" t="n">
-        <v>526.1863345775912</v>
+        <v>526.1863345775911</v>
       </c>
       <c r="M26" t="n">
-        <v>585.4836824700818</v>
+        <v>585.4836824700817</v>
       </c>
       <c r="N26" t="n">
-        <v>594.9574205567925</v>
+        <v>594.9574205567924</v>
       </c>
       <c r="O26" t="n">
         <v>561.8014212256078</v>
       </c>
       <c r="P26" t="n">
-        <v>479.4845152808062</v>
+        <v>479.4845152808061</v>
       </c>
       <c r="Q26" t="n">
         <v>360.0729023532838</v>
@@ -32973,13 +32973,13 @@
         <v>209.4517202250185</v>
       </c>
       <c r="S26" t="n">
-        <v>75.98163014550551</v>
+        <v>75.98163014550549</v>
       </c>
       <c r="T26" t="n">
         <v>14.59614200600988</v>
       </c>
       <c r="U26" t="n">
-        <v>0.266748454707205</v>
+        <v>0.2667484547072049</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.784037571782918</v>
       </c>
       <c r="H27" t="n">
-        <v>17.23004707485082</v>
+        <v>17.23004707485081</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42410060743819</v>
+        <v>61.42410060743818</v>
       </c>
       <c r="J27" t="n">
         <v>168.5524269025256</v>
@@ -33034,19 +33034,19 @@
         <v>387.3630701364621</v>
       </c>
       <c r="M27" t="n">
-        <v>452.0344321135928</v>
+        <v>452.0344321135927</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9984384612073</v>
+        <v>463.9984384612072</v>
       </c>
       <c r="O27" t="n">
         <v>424.4679217390699</v>
       </c>
       <c r="P27" t="n">
-        <v>340.6729289486171</v>
+        <v>340.672928948617</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.7308310928511</v>
+        <v>227.730831092851</v>
       </c>
       <c r="R27" t="n">
         <v>110.7668239743816</v>
@@ -33055,7 +33055,7 @@
         <v>33.13771542324847</v>
       </c>
       <c r="T27" t="n">
-        <v>7.190923370475882</v>
+        <v>7.190923370475881</v>
       </c>
       <c r="U27" t="n">
         <v>0.1173708928804552</v>
@@ -33110,7 +33110,7 @@
         <v>173.7704930790108</v>
       </c>
       <c r="L28" t="n">
-        <v>222.3664040543149</v>
+        <v>222.3664040543148</v>
       </c>
       <c r="M28" t="n">
         <v>234.4541950048031</v>
@@ -33134,10 +33134,10 @@
         <v>26.06557396185162</v>
       </c>
       <c r="T28" t="n">
-        <v>6.390620637491008</v>
+        <v>6.390620637491007</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0815823911169066</v>
+        <v>0.08158239111690659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.334355683840063</v>
+        <v>3.334355683840062</v>
       </c>
       <c r="H29" t="n">
-        <v>34.14797014712705</v>
+        <v>34.14797014712704</v>
       </c>
       <c r="I29" t="n">
         <v>128.5477475012441</v>
       </c>
       <c r="J29" t="n">
-        <v>282.9992707213208</v>
+        <v>282.9992707213207</v>
       </c>
       <c r="K29" t="n">
-        <v>424.1425468182707</v>
+        <v>424.1425468182706</v>
       </c>
       <c r="L29" t="n">
-        <v>526.1863345775912</v>
+        <v>526.186334577591</v>
       </c>
       <c r="M29" t="n">
-        <v>585.4836824700818</v>
+        <v>585.4836824700817</v>
       </c>
       <c r="N29" t="n">
-        <v>594.9574205567925</v>
+        <v>594.9574205567923</v>
       </c>
       <c r="O29" t="n">
-        <v>561.8014212256078</v>
+        <v>561.8014212256077</v>
       </c>
       <c r="P29" t="n">
-        <v>479.4845152808062</v>
+        <v>479.484515280806</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.0729023532838</v>
+        <v>360.0729023532837</v>
       </c>
       <c r="R29" t="n">
         <v>209.4517202250185</v>
       </c>
       <c r="S29" t="n">
-        <v>75.98163014550551</v>
+        <v>75.98163014550549</v>
       </c>
       <c r="T29" t="n">
         <v>14.59614200600988</v>
       </c>
       <c r="U29" t="n">
-        <v>0.266748454707205</v>
+        <v>0.2667484547072049</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.784037571782918</v>
       </c>
       <c r="H30" t="n">
-        <v>17.23004707485082</v>
+        <v>17.23004707485081</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42410060743819</v>
+        <v>61.42410060743818</v>
       </c>
       <c r="J30" t="n">
         <v>168.5524269025256</v>
       </c>
       <c r="K30" t="n">
-        <v>288.0829442119811</v>
+        <v>288.082944211981</v>
       </c>
       <c r="L30" t="n">
-        <v>387.3630701364621</v>
+        <v>387.363070136462</v>
       </c>
       <c r="M30" t="n">
-        <v>452.0344321135928</v>
+        <v>452.0344321135927</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9984384612073</v>
+        <v>463.9984384612071</v>
       </c>
       <c r="O30" t="n">
-        <v>424.4679217390699</v>
+        <v>424.4679217390698</v>
       </c>
       <c r="P30" t="n">
-        <v>340.6729289486171</v>
+        <v>340.672928948617</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.7308310928511</v>
+        <v>227.730831092851</v>
       </c>
       <c r="R30" t="n">
-        <v>110.7668239743816</v>
+        <v>110.7668239743815</v>
       </c>
       <c r="S30" t="n">
         <v>33.13771542324847</v>
       </c>
       <c r="T30" t="n">
-        <v>7.190923370475882</v>
+        <v>7.19092337047588</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1173708928804552</v>
+        <v>0.1173708928804551</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,19 +33338,19 @@
         <v>13.29792975205577</v>
       </c>
       <c r="I31" t="n">
-        <v>44.9790916357878</v>
+        <v>44.97909163578779</v>
       </c>
       <c r="J31" t="n">
-        <v>105.744375952697</v>
+        <v>105.7443759526969</v>
       </c>
       <c r="K31" t="n">
         <v>173.7704930790108</v>
       </c>
       <c r="L31" t="n">
-        <v>222.3664040543149</v>
+        <v>222.3664040543148</v>
       </c>
       <c r="M31" t="n">
-        <v>234.4541950048031</v>
+        <v>234.454195004803</v>
       </c>
       <c r="N31" t="n">
         <v>228.8793982784813</v>
@@ -33365,16 +33365,16 @@
         <v>125.2425674296376</v>
       </c>
       <c r="R31" t="n">
-        <v>67.25108441070324</v>
+        <v>67.25108441070323</v>
       </c>
       <c r="S31" t="n">
-        <v>26.06557396185162</v>
+        <v>26.06557396185161</v>
       </c>
       <c r="T31" t="n">
-        <v>6.390620637491008</v>
+        <v>6.390620637491006</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0815823911169066</v>
+        <v>0.08158239111690657</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.334355683840063</v>
+        <v>3.334355683840062</v>
       </c>
       <c r="H32" t="n">
         <v>34.14797014712705</v>
@@ -33420,25 +33420,25 @@
         <v>128.5477475012441</v>
       </c>
       <c r="J32" t="n">
-        <v>282.9992707213208</v>
+        <v>282.9992707213207</v>
       </c>
       <c r="K32" t="n">
         <v>424.1425468182707</v>
       </c>
       <c r="L32" t="n">
-        <v>526.1863345775912</v>
+        <v>526.1863345775911</v>
       </c>
       <c r="M32" t="n">
-        <v>585.4836824700818</v>
+        <v>585.4836824700817</v>
       </c>
       <c r="N32" t="n">
-        <v>594.9574205567925</v>
+        <v>594.9574205567924</v>
       </c>
       <c r="O32" t="n">
         <v>561.8014212256078</v>
       </c>
       <c r="P32" t="n">
-        <v>479.4845152808062</v>
+        <v>479.4845152808061</v>
       </c>
       <c r="Q32" t="n">
         <v>360.0729023532838</v>
@@ -33447,13 +33447,13 @@
         <v>209.4517202250185</v>
       </c>
       <c r="S32" t="n">
-        <v>75.98163014550551</v>
+        <v>75.98163014550549</v>
       </c>
       <c r="T32" t="n">
         <v>14.59614200600988</v>
       </c>
       <c r="U32" t="n">
-        <v>0.266748454707205</v>
+        <v>0.2667484547072049</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.784037571782918</v>
       </c>
       <c r="H33" t="n">
-        <v>17.23004707485082</v>
+        <v>17.23004707485081</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42410060743819</v>
+        <v>61.42410060743818</v>
       </c>
       <c r="J33" t="n">
         <v>168.5524269025256</v>
@@ -33508,19 +33508,19 @@
         <v>387.3630701364621</v>
       </c>
       <c r="M33" t="n">
-        <v>452.0344321135928</v>
+        <v>452.0344321135927</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9984384612073</v>
+        <v>463.9984384612072</v>
       </c>
       <c r="O33" t="n">
         <v>424.4679217390699</v>
       </c>
       <c r="P33" t="n">
-        <v>340.6729289486171</v>
+        <v>340.672928948617</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.7308310928511</v>
+        <v>227.730831092851</v>
       </c>
       <c r="R33" t="n">
         <v>110.7668239743816</v>
@@ -33529,7 +33529,7 @@
         <v>33.13771542324847</v>
       </c>
       <c r="T33" t="n">
-        <v>7.190923370475882</v>
+        <v>7.190923370475881</v>
       </c>
       <c r="U33" t="n">
         <v>0.1173708928804552</v>
@@ -33584,7 +33584,7 @@
         <v>173.7704930790108</v>
       </c>
       <c r="L34" t="n">
-        <v>222.3664040543149</v>
+        <v>222.3664040543148</v>
       </c>
       <c r="M34" t="n">
         <v>234.4541950048031</v>
@@ -33608,10 +33608,10 @@
         <v>26.06557396185162</v>
       </c>
       <c r="T34" t="n">
-        <v>6.390620637491008</v>
+        <v>6.390620637491007</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0815823911169066</v>
+        <v>0.08158239111690659</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.334355683840063</v>
+        <v>3.334355683840062</v>
       </c>
       <c r="H35" t="n">
         <v>34.14797014712705</v>
@@ -33657,25 +33657,25 @@
         <v>128.5477475012441</v>
       </c>
       <c r="J35" t="n">
-        <v>282.9992707213208</v>
+        <v>282.9992707213207</v>
       </c>
       <c r="K35" t="n">
         <v>424.1425468182707</v>
       </c>
       <c r="L35" t="n">
-        <v>526.1863345775912</v>
+        <v>526.1863345775911</v>
       </c>
       <c r="M35" t="n">
-        <v>585.4836824700818</v>
+        <v>585.4836824700817</v>
       </c>
       <c r="N35" t="n">
-        <v>594.9574205567925</v>
+        <v>594.9574205567924</v>
       </c>
       <c r="O35" t="n">
         <v>561.8014212256078</v>
       </c>
       <c r="P35" t="n">
-        <v>479.4845152808062</v>
+        <v>479.4845152808061</v>
       </c>
       <c r="Q35" t="n">
         <v>360.0729023532838</v>
@@ -33684,13 +33684,13 @@
         <v>209.4517202250185</v>
       </c>
       <c r="S35" t="n">
-        <v>75.98163014550551</v>
+        <v>75.98163014550549</v>
       </c>
       <c r="T35" t="n">
         <v>14.59614200600988</v>
       </c>
       <c r="U35" t="n">
-        <v>0.266748454707205</v>
+        <v>0.2667484547072049</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.784037571782918</v>
       </c>
       <c r="H36" t="n">
-        <v>17.23004707485082</v>
+        <v>17.23004707485081</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42410060743819</v>
+        <v>61.42410060743818</v>
       </c>
       <c r="J36" t="n">
         <v>168.5524269025256</v>
@@ -33745,19 +33745,19 @@
         <v>387.3630701364621</v>
       </c>
       <c r="M36" t="n">
-        <v>452.0344321135928</v>
+        <v>452.0344321135927</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9984384612073</v>
+        <v>463.9984384612072</v>
       </c>
       <c r="O36" t="n">
         <v>424.4679217390699</v>
       </c>
       <c r="P36" t="n">
-        <v>340.6729289486171</v>
+        <v>340.672928948617</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.7308310928511</v>
+        <v>227.730831092851</v>
       </c>
       <c r="R36" t="n">
         <v>110.7668239743816</v>
@@ -33766,7 +33766,7 @@
         <v>33.13771542324847</v>
       </c>
       <c r="T36" t="n">
-        <v>7.190923370475882</v>
+        <v>7.190923370475881</v>
       </c>
       <c r="U36" t="n">
         <v>0.1173708928804552</v>
@@ -33821,7 +33821,7 @@
         <v>173.7704930790108</v>
       </c>
       <c r="L37" t="n">
-        <v>222.3664040543149</v>
+        <v>222.3664040543148</v>
       </c>
       <c r="M37" t="n">
         <v>234.4541950048031</v>
@@ -33845,10 +33845,10 @@
         <v>26.06557396185162</v>
       </c>
       <c r="T37" t="n">
-        <v>6.390620637491008</v>
+        <v>6.390620637491007</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0815823911169066</v>
+        <v>0.08158239111690659</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.334355683840063</v>
+        <v>3.334355683840062</v>
       </c>
       <c r="H38" t="n">
         <v>34.14797014712705</v>
@@ -33894,25 +33894,25 @@
         <v>128.5477475012441</v>
       </c>
       <c r="J38" t="n">
-        <v>282.9992707213208</v>
+        <v>282.9992707213207</v>
       </c>
       <c r="K38" t="n">
         <v>424.1425468182707</v>
       </c>
       <c r="L38" t="n">
-        <v>526.1863345775912</v>
+        <v>526.1863345775911</v>
       </c>
       <c r="M38" t="n">
-        <v>585.4836824700818</v>
+        <v>585.4836824700817</v>
       </c>
       <c r="N38" t="n">
-        <v>594.9574205567925</v>
+        <v>594.9574205567924</v>
       </c>
       <c r="O38" t="n">
         <v>561.8014212256078</v>
       </c>
       <c r="P38" t="n">
-        <v>479.4845152808062</v>
+        <v>479.4845152808061</v>
       </c>
       <c r="Q38" t="n">
         <v>360.0729023532838</v>
@@ -33921,13 +33921,13 @@
         <v>209.4517202250185</v>
       </c>
       <c r="S38" t="n">
-        <v>75.98163014550551</v>
+        <v>75.98163014550549</v>
       </c>
       <c r="T38" t="n">
         <v>14.59614200600988</v>
       </c>
       <c r="U38" t="n">
-        <v>0.266748454707205</v>
+        <v>0.2667484547072049</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.784037571782918</v>
       </c>
       <c r="H39" t="n">
-        <v>17.23004707485082</v>
+        <v>17.23004707485081</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42410060743819</v>
+        <v>61.42410060743818</v>
       </c>
       <c r="J39" t="n">
         <v>168.5524269025256</v>
@@ -33982,19 +33982,19 @@
         <v>387.3630701364621</v>
       </c>
       <c r="M39" t="n">
-        <v>452.0344321135928</v>
+        <v>452.0344321135927</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9984384612073</v>
+        <v>463.9984384612072</v>
       </c>
       <c r="O39" t="n">
         <v>424.4679217390699</v>
       </c>
       <c r="P39" t="n">
-        <v>340.6729289486171</v>
+        <v>340.672928948617</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.7308310928511</v>
+        <v>227.730831092851</v>
       </c>
       <c r="R39" t="n">
         <v>110.7668239743816</v>
@@ -34003,7 +34003,7 @@
         <v>33.13771542324847</v>
       </c>
       <c r="T39" t="n">
-        <v>7.190923370475882</v>
+        <v>7.190923370475881</v>
       </c>
       <c r="U39" t="n">
         <v>0.1173708928804552</v>
@@ -34058,7 +34058,7 @@
         <v>173.7704930790108</v>
       </c>
       <c r="L40" t="n">
-        <v>222.3664040543149</v>
+        <v>222.3664040543148</v>
       </c>
       <c r="M40" t="n">
         <v>234.4541950048031</v>
@@ -34082,10 +34082,10 @@
         <v>26.06557396185162</v>
       </c>
       <c r="T40" t="n">
-        <v>6.390620637491008</v>
+        <v>6.390620637491007</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0815823911169066</v>
+        <v>0.08158239111690659</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.334355683840063</v>
+        <v>3.334355683840062</v>
       </c>
       <c r="H41" t="n">
         <v>34.14797014712705</v>
@@ -34131,25 +34131,25 @@
         <v>128.5477475012441</v>
       </c>
       <c r="J41" t="n">
-        <v>282.9992707213208</v>
+        <v>282.9992707213207</v>
       </c>
       <c r="K41" t="n">
         <v>424.1425468182707</v>
       </c>
       <c r="L41" t="n">
-        <v>526.1863345775912</v>
+        <v>526.1863345775911</v>
       </c>
       <c r="M41" t="n">
-        <v>585.4836824700818</v>
+        <v>585.4836824700817</v>
       </c>
       <c r="N41" t="n">
-        <v>594.9574205567925</v>
+        <v>594.9574205567924</v>
       </c>
       <c r="O41" t="n">
         <v>561.8014212256078</v>
       </c>
       <c r="P41" t="n">
-        <v>479.4845152808062</v>
+        <v>479.4845152808061</v>
       </c>
       <c r="Q41" t="n">
         <v>360.0729023532838</v>
@@ -34158,13 +34158,13 @@
         <v>209.4517202250185</v>
       </c>
       <c r="S41" t="n">
-        <v>75.98163014550551</v>
+        <v>75.98163014550549</v>
       </c>
       <c r="T41" t="n">
         <v>14.59614200600988</v>
       </c>
       <c r="U41" t="n">
-        <v>0.266748454707205</v>
+        <v>0.2667484547072049</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.784037571782918</v>
       </c>
       <c r="H42" t="n">
-        <v>17.23004707485082</v>
+        <v>17.23004707485081</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42410060743819</v>
+        <v>61.42410060743818</v>
       </c>
       <c r="J42" t="n">
         <v>168.5524269025256</v>
@@ -34219,19 +34219,19 @@
         <v>387.3630701364621</v>
       </c>
       <c r="M42" t="n">
-        <v>452.0344321135928</v>
+        <v>452.0344321135927</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9984384612073</v>
+        <v>463.9984384612072</v>
       </c>
       <c r="O42" t="n">
         <v>424.4679217390699</v>
       </c>
       <c r="P42" t="n">
-        <v>340.6729289486171</v>
+        <v>340.672928948617</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.7308310928511</v>
+        <v>227.730831092851</v>
       </c>
       <c r="R42" t="n">
         <v>110.7668239743816</v>
@@ -34240,7 +34240,7 @@
         <v>33.13771542324847</v>
       </c>
       <c r="T42" t="n">
-        <v>7.190923370475882</v>
+        <v>7.190923370475881</v>
       </c>
       <c r="U42" t="n">
         <v>0.1173708928804552</v>
@@ -34295,7 +34295,7 @@
         <v>173.7704930790108</v>
       </c>
       <c r="L43" t="n">
-        <v>222.3664040543149</v>
+        <v>222.3664040543148</v>
       </c>
       <c r="M43" t="n">
         <v>234.4541950048031</v>
@@ -34319,10 +34319,10 @@
         <v>26.06557396185162</v>
       </c>
       <c r="T43" t="n">
-        <v>6.390620637491008</v>
+        <v>6.390620637491007</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0815823911169066</v>
+        <v>0.08158239111690659</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.334355683840063</v>
+        <v>3.334355683840062</v>
       </c>
       <c r="H44" t="n">
         <v>34.14797014712705</v>
@@ -34368,40 +34368,40 @@
         <v>128.5477475012441</v>
       </c>
       <c r="J44" t="n">
-        <v>282.9992707213208</v>
+        <v>282.9992707213207</v>
       </c>
       <c r="K44" t="n">
         <v>424.1425468182707</v>
       </c>
       <c r="L44" t="n">
-        <v>526.1863345775907</v>
+        <v>526.1863345775911</v>
       </c>
       <c r="M44" t="n">
-        <v>585.4836824700818</v>
+        <v>585.4836824700817</v>
       </c>
       <c r="N44" t="n">
-        <v>594.9574205567925</v>
+        <v>594.9574205567924</v>
       </c>
       <c r="O44" t="n">
         <v>561.8014212256078</v>
       </c>
       <c r="P44" t="n">
-        <v>479.4845152808062</v>
+        <v>479.4845152808061</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.0729023532838</v>
+        <v>360.072902353284</v>
       </c>
       <c r="R44" t="n">
         <v>209.4517202250185</v>
       </c>
       <c r="S44" t="n">
-        <v>75.98163014550551</v>
+        <v>75.98163014550549</v>
       </c>
       <c r="T44" t="n">
         <v>14.59614200600988</v>
       </c>
       <c r="U44" t="n">
-        <v>0.266748454707205</v>
+        <v>0.2667484547072049</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.784037571782918</v>
       </c>
       <c r="H45" t="n">
-        <v>17.23004707485082</v>
+        <v>17.23004707485081</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42410060743819</v>
+        <v>61.42410060743818</v>
       </c>
       <c r="J45" t="n">
         <v>168.5524269025256</v>
@@ -34456,19 +34456,19 @@
         <v>387.3630701364621</v>
       </c>
       <c r="M45" t="n">
-        <v>452.0344321135928</v>
+        <v>452.0344321135927</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9984384612073</v>
+        <v>463.9984384612072</v>
       </c>
       <c r="O45" t="n">
         <v>424.4679217390699</v>
       </c>
       <c r="P45" t="n">
-        <v>340.6729289486171</v>
+        <v>340.672928948617</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.7308310928511</v>
+        <v>227.730831092851</v>
       </c>
       <c r="R45" t="n">
         <v>110.7668239743816</v>
@@ -34477,7 +34477,7 @@
         <v>33.13771542324847</v>
       </c>
       <c r="T45" t="n">
-        <v>7.190923370475882</v>
+        <v>7.190923370475881</v>
       </c>
       <c r="U45" t="n">
         <v>0.1173708928804552</v>
@@ -34532,7 +34532,7 @@
         <v>173.7704930790108</v>
       </c>
       <c r="L46" t="n">
-        <v>222.3664040543149</v>
+        <v>222.3664040543148</v>
       </c>
       <c r="M46" t="n">
         <v>234.4541950048031</v>
@@ -34556,10 +34556,10 @@
         <v>26.06557396185162</v>
       </c>
       <c r="T46" t="n">
-        <v>6.390620637491008</v>
+        <v>6.390620637491007</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0815823911169066</v>
+        <v>0.08158239111690659</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>204.0526957732901</v>
       </c>
       <c r="L11" t="n">
-        <v>290.4199196076037</v>
+        <v>290.4199196076038</v>
       </c>
       <c r="M11" t="n">
         <v>355.137449242809</v>
       </c>
       <c r="N11" t="n">
-        <v>365.5443569602014</v>
+        <v>365.5443569602015</v>
       </c>
       <c r="O11" t="n">
-        <v>331.7032098039209</v>
+        <v>331.703209803921</v>
       </c>
       <c r="P11" t="n">
-        <v>248.2515195255365</v>
+        <v>248.2515195255366</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.7672124788342</v>
+        <v>137.7672124788343</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.71480023585889</v>
+        <v>41.71480023585892</v>
       </c>
       <c r="K12" t="n">
         <v>150.2415052376221</v>
       </c>
       <c r="L12" t="n">
-        <v>248.8086903565878</v>
+        <v>248.8086903565879</v>
       </c>
       <c r="M12" t="n">
         <v>309.9003981915744</v>
@@ -35506,10 +35506,10 @@
         <v>281.8716772946254</v>
       </c>
       <c r="P12" t="n">
-        <v>206.6985215342867</v>
+        <v>206.6985215342868</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.7490570068295</v>
+        <v>87.74905700682953</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.59550217930025</v>
+        <v>80.59550217930023</v>
       </c>
       <c r="K13" t="n">
         <v>219.711307596404</v>
       </c>
       <c r="L13" t="n">
-        <v>318.1667356579071</v>
+        <v>318.166735657907</v>
       </c>
       <c r="M13" t="n">
-        <v>342.2483783099198</v>
+        <v>342.2483783099197</v>
       </c>
       <c r="N13" t="n">
         <v>341.221877000986</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.9533661946343</v>
+        <v>101.9533661946344</v>
       </c>
       <c r="K14" t="n">
-        <v>204.0526957732899</v>
+        <v>204.0526957732901</v>
       </c>
       <c r="L14" t="n">
-        <v>290.4199196076036</v>
+        <v>290.4199196076037</v>
       </c>
       <c r="M14" t="n">
-        <v>355.1374492428088</v>
+        <v>355.137449242809</v>
       </c>
       <c r="N14" t="n">
-        <v>365.5443569602012</v>
+        <v>365.5443569602014</v>
       </c>
       <c r="O14" t="n">
-        <v>331.7032098039207</v>
+        <v>331.7032098039209</v>
       </c>
       <c r="P14" t="n">
-        <v>248.2515195255364</v>
+        <v>248.2515195255365</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.7672124788341</v>
+        <v>137.7672124788342</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.71480023585883</v>
+        <v>41.71480023585889</v>
       </c>
       <c r="K15" t="n">
-        <v>150.2415052376219</v>
+        <v>150.2415052376221</v>
       </c>
       <c r="L15" t="n">
-        <v>248.8086903565877</v>
+        <v>248.8086903565878</v>
       </c>
       <c r="M15" t="n">
-        <v>309.9003981915742</v>
+        <v>309.9003981915744</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6567263778737</v>
+        <v>332.6567263778738</v>
       </c>
       <c r="O15" t="n">
-        <v>281.8716772946253</v>
+        <v>281.8716772946254</v>
       </c>
       <c r="P15" t="n">
-        <v>206.6985215342866</v>
+        <v>206.6985215342867</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.74905700682945</v>
+        <v>87.7490570068295</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>80.59550217930023</v>
+        <v>80.59550217930092</v>
       </c>
       <c r="K16" t="n">
         <v>219.711307596404</v>
@@ -35816,13 +35816,13 @@
         <v>342.2483783099196</v>
       </c>
       <c r="N16" t="n">
-        <v>341.2218770009859</v>
+        <v>341.221877000986</v>
       </c>
       <c r="O16" t="n">
         <v>304.2026037715928</v>
       </c>
       <c r="P16" t="n">
-        <v>246.3842208447232</v>
+        <v>246.3842208447234</v>
       </c>
       <c r="Q16" t="n">
         <v>107.2908305212193</v>
@@ -36044,7 +36044,7 @@
         <v>60.67709658246264</v>
       </c>
       <c r="K19" t="n">
-        <v>177.2335044181843</v>
+        <v>233.4291433222897</v>
       </c>
       <c r="L19" t="n">
         <v>331.8845713837928</v>
@@ -36053,7 +36053,7 @@
         <v>177.4565531263598</v>
       </c>
       <c r="N19" t="n">
-        <v>354.9397127268717</v>
+        <v>233.4011154450148</v>
       </c>
       <c r="O19" t="n">
         <v>317.9204394974786</v>
@@ -36062,7 +36062,7 @@
         <v>260.1020565706092</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.66570786935358</v>
+        <v>121.008666247105</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>60.67709658246264</v>
+        <v>94.31333790518597</v>
       </c>
       <c r="K22" t="n">
-        <v>177.2335044181843</v>
+        <v>233.4291433222897</v>
       </c>
       <c r="L22" t="n">
         <v>331.8845713837928</v>
@@ -36290,7 +36290,7 @@
         <v>177.4565531263598</v>
       </c>
       <c r="N22" t="n">
-        <v>354.9397127268717</v>
+        <v>199.7648741222915</v>
       </c>
       <c r="O22" t="n">
         <v>317.9204394974786</v>
@@ -36299,7 +36299,7 @@
         <v>260.1020565706092</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.66570786935358</v>
+        <v>121.008666247105</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.9533661946345</v>
+        <v>101.9533661946344</v>
       </c>
       <c r="K23" t="n">
-        <v>204.0526957732902</v>
+        <v>204.0526957732901</v>
       </c>
       <c r="L23" t="n">
-        <v>290.419919607604</v>
+        <v>290.4199196076038</v>
       </c>
       <c r="M23" t="n">
-        <v>355.1374492428091</v>
+        <v>355.137449242809</v>
       </c>
       <c r="N23" t="n">
-        <v>365.5443569602016</v>
+        <v>365.5443569602015</v>
       </c>
       <c r="O23" t="n">
         <v>331.703209803921</v>
       </c>
       <c r="P23" t="n">
-        <v>248.2515195255367</v>
+        <v>248.2515195255366</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.7672124788344</v>
+        <v>137.7672124788343</v>
       </c>
       <c r="R23" t="n">
-        <v>-1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>248.8086903565879</v>
       </c>
       <c r="M24" t="n">
-        <v>309.9003981915745</v>
+        <v>309.9003981915744</v>
       </c>
       <c r="N24" t="n">
-        <v>332.656726377874</v>
+        <v>332.6567263778738</v>
       </c>
       <c r="O24" t="n">
-        <v>281.8716772946255</v>
+        <v>281.8716772946254</v>
       </c>
       <c r="P24" t="n">
         <v>206.6985215342868</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.74905700682959</v>
+        <v>87.74905700682953</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>60.67709658246265</v>
+        <v>94.31333790518597</v>
       </c>
       <c r="K25" t="n">
-        <v>126.6853769776372</v>
+        <v>233.4291433222897</v>
       </c>
       <c r="L25" t="n">
-        <v>169.4098698422384</v>
+        <v>331.8845713837928</v>
       </c>
       <c r="M25" t="n">
-        <v>355.9662140358055</v>
+        <v>177.4565531263598</v>
       </c>
       <c r="N25" t="n">
-        <v>354.9397127268717</v>
+        <v>199.7648741222915</v>
       </c>
       <c r="O25" t="n">
-        <v>287.0906491923832</v>
+        <v>317.9204394974786</v>
       </c>
       <c r="P25" t="n">
         <v>260.1020565706092</v>
       </c>
       <c r="Q25" t="n">
-        <v>121.0086662471051</v>
+        <v>121.008666247105</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>101.9533661946345</v>
+        <v>101.9533661946344</v>
       </c>
       <c r="K26" t="n">
-        <v>204.0526957732902</v>
+        <v>204.0526957732901</v>
       </c>
       <c r="L26" t="n">
-        <v>290.419919607604</v>
+        <v>290.4199196076038</v>
       </c>
       <c r="M26" t="n">
-        <v>355.1374492428091</v>
+        <v>355.137449242809</v>
       </c>
       <c r="N26" t="n">
-        <v>365.5443569602016</v>
+        <v>365.5443569602015</v>
       </c>
       <c r="O26" t="n">
         <v>331.703209803921</v>
       </c>
       <c r="P26" t="n">
-        <v>248.2515195255367</v>
+        <v>248.2515195255366</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.7672124788344</v>
+        <v>137.7672124788343</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>248.8086903565879</v>
       </c>
       <c r="M27" t="n">
-        <v>309.9003981915745</v>
+        <v>309.9003981915744</v>
       </c>
       <c r="N27" t="n">
-        <v>332.656726377874</v>
+        <v>332.6567263778738</v>
       </c>
       <c r="O27" t="n">
-        <v>281.8716772946255</v>
+        <v>281.8716772946254</v>
       </c>
       <c r="P27" t="n">
         <v>206.6985215342868</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.74905700682959</v>
+        <v>87.74905700682953</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>101.9533661946345</v>
+        <v>101.9533661946344</v>
       </c>
       <c r="K29" t="n">
-        <v>204.0526957732902</v>
+        <v>204.0526957732901</v>
       </c>
       <c r="L29" t="n">
-        <v>290.419919607604</v>
+        <v>290.4199196076037</v>
       </c>
       <c r="M29" t="n">
-        <v>355.1374492428091</v>
+        <v>355.137449242809</v>
       </c>
       <c r="N29" t="n">
-        <v>365.5443569602016</v>
+        <v>365.5443569602014</v>
       </c>
       <c r="O29" t="n">
-        <v>331.703209803921</v>
+        <v>331.7032098039209</v>
       </c>
       <c r="P29" t="n">
-        <v>248.2515195255367</v>
+        <v>248.2515195255365</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.7672124788344</v>
+        <v>137.7672124788342</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.71480023585892</v>
+        <v>41.71480023585889</v>
       </c>
       <c r="K30" t="n">
         <v>150.2415052376221</v>
       </c>
       <c r="L30" t="n">
-        <v>248.8086903565879</v>
+        <v>248.8086903565878</v>
       </c>
       <c r="M30" t="n">
-        <v>309.9003981915745</v>
+        <v>309.9003981915744</v>
       </c>
       <c r="N30" t="n">
-        <v>332.656726377874</v>
+        <v>332.6567263778738</v>
       </c>
       <c r="O30" t="n">
-        <v>281.8716772946255</v>
+        <v>281.8716772946254</v>
       </c>
       <c r="P30" t="n">
-        <v>206.6985215342868</v>
+        <v>206.6985215342867</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.74905700682959</v>
+        <v>87.7490570068295</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.59550217930024</v>
+        <v>80.59550217930025</v>
       </c>
       <c r="K31" t="n">
         <v>219.711307596404</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>101.9533661946345</v>
+        <v>101.9533661946344</v>
       </c>
       <c r="K32" t="n">
-        <v>204.0526957732902</v>
+        <v>204.0526957732901</v>
       </c>
       <c r="L32" t="n">
-        <v>290.419919607604</v>
+        <v>290.4199196076038</v>
       </c>
       <c r="M32" t="n">
-        <v>355.1374492428091</v>
+        <v>355.137449242809</v>
       </c>
       <c r="N32" t="n">
-        <v>365.5443569602016</v>
+        <v>365.5443569602015</v>
       </c>
       <c r="O32" t="n">
         <v>331.703209803921</v>
       </c>
       <c r="P32" t="n">
-        <v>248.2515195255367</v>
+        <v>248.2515195255366</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.7672124788344</v>
+        <v>137.7672124788343</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>248.8086903565879</v>
       </c>
       <c r="M33" t="n">
-        <v>309.9003981915745</v>
+        <v>309.9003981915744</v>
       </c>
       <c r="N33" t="n">
-        <v>332.656726377874</v>
+        <v>332.6567263778738</v>
       </c>
       <c r="O33" t="n">
-        <v>281.8716772946255</v>
+        <v>281.8716772946254</v>
       </c>
       <c r="P33" t="n">
         <v>206.6985215342868</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.74905700682959</v>
+        <v>87.74905700682953</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37223,31 +37223,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>12.23139366919595</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>38.41398516004396</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>167.4600118691419</v>
+        <v>95.40261373771568</v>
       </c>
       <c r="L34" t="n">
         <v>210.184504733743</v>
       </c>
       <c r="M34" t="n">
-        <v>95.52841105719807</v>
+        <v>95.52841105719804</v>
       </c>
       <c r="N34" t="n">
         <v>223.8966307739146</v>
       </c>
       <c r="O34" t="n">
-        <v>72.95063106243435</v>
+        <v>195.6534080231008</v>
       </c>
       <c r="P34" t="n">
         <v>165.8701281480728</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.44034276085823</v>
+        <v>96.44034276085821</v>
       </c>
       <c r="R34" t="n">
         <v>12.66046999420018</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>101.9533661946345</v>
+        <v>101.9533661946344</v>
       </c>
       <c r="K35" t="n">
-        <v>204.0526957732902</v>
+        <v>204.0526957732901</v>
       </c>
       <c r="L35" t="n">
-        <v>290.419919607604</v>
+        <v>290.4199196076038</v>
       </c>
       <c r="M35" t="n">
-        <v>355.1374492428091</v>
+        <v>355.137449242809</v>
       </c>
       <c r="N35" t="n">
-        <v>365.5443569602016</v>
+        <v>365.5443569602015</v>
       </c>
       <c r="O35" t="n">
         <v>331.703209803921</v>
       </c>
       <c r="P35" t="n">
-        <v>248.2515195255367</v>
+        <v>248.2515195255366</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.7672124788344</v>
+        <v>137.7672124788343</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>248.8086903565879</v>
       </c>
       <c r="M36" t="n">
-        <v>309.9003981915745</v>
+        <v>309.9003981915744</v>
       </c>
       <c r="N36" t="n">
-        <v>332.656726377874</v>
+        <v>332.6567263778738</v>
       </c>
       <c r="O36" t="n">
-        <v>281.8716772946255</v>
+        <v>281.8716772946254</v>
       </c>
       <c r="P36" t="n">
         <v>206.6985215342868</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.74905700682959</v>
+        <v>87.74905700682953</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37460,34 +37460,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>12.23139366919595</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.4517314739673</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>104.4222655552187</v>
+        <v>108.0630837319158</v>
       </c>
       <c r="L37" t="n">
-        <v>210.184504733743</v>
+        <v>87.48172777307656</v>
       </c>
       <c r="M37" t="n">
         <v>218.2311880178645</v>
       </c>
       <c r="N37" t="n">
-        <v>101.1938538132482</v>
+        <v>223.8966307739146</v>
       </c>
       <c r="O37" t="n">
         <v>195.6534080231008</v>
       </c>
       <c r="P37" t="n">
-        <v>43.16735118740633</v>
+        <v>165.8701281480728</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.44034276085823</v>
+        <v>96.44034276085821</v>
       </c>
       <c r="R37" t="n">
-        <v>12.66046999420018</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>101.9533661946345</v>
+        <v>101.9533661946344</v>
       </c>
       <c r="K38" t="n">
-        <v>204.0526957732902</v>
+        <v>204.0526957732901</v>
       </c>
       <c r="L38" t="n">
-        <v>290.419919607604</v>
+        <v>290.4199196076038</v>
       </c>
       <c r="M38" t="n">
-        <v>355.1374492428091</v>
+        <v>355.137449242809</v>
       </c>
       <c r="N38" t="n">
-        <v>365.5443569602016</v>
+        <v>365.5443569602015</v>
       </c>
       <c r="O38" t="n">
         <v>331.703209803921</v>
       </c>
       <c r="P38" t="n">
-        <v>248.2515195255367</v>
+        <v>248.2515195255366</v>
       </c>
       <c r="Q38" t="n">
-        <v>137.7672124788344</v>
+        <v>137.7672124788343</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>248.8086903565879</v>
       </c>
       <c r="M39" t="n">
-        <v>309.9003981915745</v>
+        <v>309.9003981915744</v>
       </c>
       <c r="N39" t="n">
-        <v>332.656726377874</v>
+        <v>332.6567263778738</v>
       </c>
       <c r="O39" t="n">
-        <v>281.8716772946255</v>
+        <v>281.8716772946254</v>
       </c>
       <c r="P39" t="n">
         <v>206.6985215342868</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.74905700682959</v>
+        <v>87.74905700682953</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37697,10 +37697,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>12.23139366919595</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.4517314739673</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>167.4600118691419</v>
@@ -37709,22 +37709,22 @@
         <v>210.184504733743</v>
       </c>
       <c r="M40" t="n">
-        <v>155.1934417039411</v>
+        <v>218.2311880178645</v>
       </c>
       <c r="N40" t="n">
-        <v>101.1938538132482</v>
+        <v>223.8966307739146</v>
       </c>
       <c r="O40" t="n">
-        <v>72.95063106243435</v>
+        <v>72.95063106243433</v>
       </c>
       <c r="P40" t="n">
         <v>165.8701281480728</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.44034276085823</v>
+        <v>37.04341462363219</v>
       </c>
       <c r="R40" t="n">
-        <v>12.66046999420018</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>101.9533661946345</v>
+        <v>101.9533661946344</v>
       </c>
       <c r="K41" t="n">
-        <v>204.0526957732902</v>
+        <v>204.0526957732901</v>
       </c>
       <c r="L41" t="n">
-        <v>290.419919607604</v>
+        <v>290.4199196076038</v>
       </c>
       <c r="M41" t="n">
-        <v>355.1374492428091</v>
+        <v>355.137449242809</v>
       </c>
       <c r="N41" t="n">
-        <v>365.5443569602016</v>
+        <v>365.5443569602015</v>
       </c>
       <c r="O41" t="n">
         <v>331.703209803921</v>
       </c>
       <c r="P41" t="n">
-        <v>248.2515195255367</v>
+        <v>248.2515195255366</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.7672124788344</v>
+        <v>137.7672124788343</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>248.8086903565879</v>
       </c>
       <c r="M42" t="n">
-        <v>309.9003981915745</v>
+        <v>309.9003981915744</v>
       </c>
       <c r="N42" t="n">
-        <v>332.656726377874</v>
+        <v>332.6567263778738</v>
       </c>
       <c r="O42" t="n">
-        <v>281.8716772946255</v>
+        <v>281.8716772946254</v>
       </c>
       <c r="P42" t="n">
         <v>206.6985215342868</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.74905700682959</v>
+        <v>87.74905700682953</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.59550217930025</v>
+        <v>80.59550217930028</v>
       </c>
       <c r="K43" t="n">
-        <v>219.711307596404</v>
+        <v>219.7113075964041</v>
       </c>
       <c r="L43" t="n">
         <v>318.1667356579071</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>101.9533661946345</v>
+        <v>101.9533661946344</v>
       </c>
       <c r="K44" t="n">
-        <v>204.0526957732902</v>
+        <v>204.0526957732901</v>
       </c>
       <c r="L44" t="n">
-        <v>290.4199196076035</v>
+        <v>290.4199196076038</v>
       </c>
       <c r="M44" t="n">
-        <v>355.1374492428091</v>
+        <v>355.137449242809</v>
       </c>
       <c r="N44" t="n">
-        <v>365.5443569602016</v>
+        <v>365.5443569602015</v>
       </c>
       <c r="O44" t="n">
         <v>331.703209803921</v>
       </c>
       <c r="P44" t="n">
-        <v>248.2515195255367</v>
+        <v>248.2515195255366</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.7672124788344</v>
+        <v>137.7672124788345</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>248.8086903565879</v>
       </c>
       <c r="M45" t="n">
-        <v>309.9003981915745</v>
+        <v>309.9003981915744</v>
       </c>
       <c r="N45" t="n">
-        <v>332.656726377874</v>
+        <v>332.6567263778738</v>
       </c>
       <c r="O45" t="n">
-        <v>281.8716772946255</v>
+        <v>281.8716772946254</v>
       </c>
       <c r="P45" t="n">
         <v>206.6985215342868</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.74905700682959</v>
+        <v>87.74905700682953</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>80.59550217930028</v>
       </c>
       <c r="K46" t="n">
-        <v>219.711307596404</v>
+        <v>219.7113075964041</v>
       </c>
       <c r="L46" t="n">
         <v>318.1667356579071</v>
